--- a/ARG_COMPARISON_EXCEL/ARGS_post_order/PE_contra.xlsx
+++ b/ARG_COMPARISON_EXCEL/ARGS_post_order/PE_contra.xlsx
@@ -33,13 +33,13 @@
     <t>0,1</t>
   </si>
   <si>
-    <t>63,0.0,0.12,0.0,0.07,2.33,0.0,0.13,0.0,0.1,0.1,0.1,0.0,0.0,274,1.0,17.9,0.0,0.04,1.0,0.0,0.0,0.0,0.2,0.25,0.3,0.0,0.0</t>
+    <t>5.0,4.2,0.35,0.95,0.37,0.0,0.12,0.0,0.07,2.33,0,0,0.0,0.13,0.0,0.27,0.07,0.33,0.07,0.07,0.27,0.0,0.0,0.0,0.0,2.25,22.5,6.09,1.04,0.63,1.65,1.0,17.9,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.33,0.11,0.13,0.13,0.13,0.02,0.0,0.0,0.0,0.0,3.28</t>
   </si>
   <si>
     <t>arg582041</t>
   </si>
   <si>
-    <t>63,0.0,0.12,0.0,0.07,2.33,0.0,0.13,0.0,0.1,0.1,0.1,0.0,0.0,298,0.67,13.7,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.2,0.2,0.0,0.0</t>
+    <t>5.0,4.2,0.35,0.95,0.37,0.0,0.12,0.0,0.07,2.33,0,0,0.0,0.13,0.0,0.27,0.07,0.33,0.07,0.07,0.27,0.0,0.0,0.0,0.0,2.25,18.33,5.42,1.28,0.95,1.35,0.67,13.7,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.22,0.18,0.11,0.09,0.09,0.05,0.02,0.0,0.0,0.0,2.94</t>
   </si>
   <si>
     <t>arg485419</t>
@@ -48,19 +48,19 @@
     <t>1,0</t>
   </si>
   <si>
-    <t>219,0.33,12.23,0.0,0.03,5.67,0.0,0.03,0.0,0.05,0.2,0.2,0.17,0.25,63,0.0,0.12,0.0,0.07,2.33,0.0,0.13,0.0,0.1,0.1,0.1,0.0,0.0</t>
+    <t>13.0,5.62,0.91,0.95,0.96,0.33,12.23,0.0,0.03,5.67,0,0,0.0,0.03,0.0,0.28,0.13,0.15,0.08,0.08,0.03,0.03,0.13,0.25,0.25,2.0,5.0,4.2,0.35,0.95,0.37,0.0,0.12,0.0,0.07,2.33,0,0,0.0,0.13,0.0,0.27,0.07,0.33,0.07,0.07,0.27,0.0,0.0,0.0,0.0,2.25</t>
   </si>
   <si>
     <t>arg202606</t>
   </si>
   <si>
-    <t>320,0.25,9.79,1.0,0.03,1.75,0.0,0.05,0.0,0.3,0.3,0.35,0.0,0.0,63,0.0,0.12,0.0,0.07,2.33,0.0,0.13,0.0,0.1,0.1,0.1,0.0,0.0</t>
+    <t>15.75,5.08,1.46,1.26,1.16,0.25,9.79,1.0,0.03,1.75,0,0,0.0,0.05,0.0,0.17,0.14,0.19,0.08,0.08,0.05,0.0,0.0,0.0,0.0,2.89,5.0,4.2,0.35,0.95,0.37,0.0,0.12,0.0,0.07,2.33,0,0,0.0,0.13,0.0,0.27,0.07,0.33,0.07,0.07,0.27,0.0,0.0,0.0,0.0,2.25</t>
   </si>
   <si>
     <t>arg312577</t>
   </si>
   <si>
-    <t>190,0.2,11.0,0.0,0.0,1.2,0.0,0.03,0.0,0.05,0.1,0.1,0.0,0.0,63,0.0,0.12,0.0,0.07,2.33,0.0,0.13,0.0,0.1,0.1,0.1,0.0,0.0</t>
+    <t>7.0,5.43,0.81,1.58,0.51,0.2,11.0,0.0,0.0,1.2,2,0,0.0,0.03,0.0,0.14,0.06,0.23,0.11,0.11,0.0,0.06,0.25,0.0,0.0,2.67,5.0,4.2,0.35,0.95,0.37,0.0,0.12,0.0,0.07,2.33,0,0,0.0,0.13,0.0,0.27,0.07,0.33,0.07,0.07,0.27,0.0,0.0,0.0,0.0,2.25</t>
   </si>
   <si>
     <t>arg263839</t>
@@ -69,7 +69,7 @@
     <t>arg201958</t>
   </si>
   <si>
-    <t>248,0.25,13.18,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.2,0.25,0.0,0.0,121,0.0,8.61,0.0,0.04,1.0,0.0,0.04,0.0,0.1,0.1,0.1,0.08,0.0</t>
+    <t>11.25,5.51,1.04,1.26,0.83,0.25,13.18,0.0,0.0,1.0,3,0,0.0,0.07,0.0,0.24,0.09,0.18,0.09,0.09,0.04,0.0,0.0,0.0,0.0,2.0,13.0,4.65,0.6,0.63,0.96,0.0,8.61,0.0,0.04,1.0,0,0,0.0,0.04,0.0,0.27,0.04,0.31,0.04,0.04,0.08,0.0,0.0,0.0,0.0,2.25</t>
   </si>
   <si>
     <t>arg96567</t>
@@ -78,7 +78,7 @@
     <t>arg245105</t>
   </si>
   <si>
-    <t>200,0.0,13.43,1.0,0.0,1.0,0.0,0.03,0.0,0.15,0.05,0.0,0.08,0.0,507,0.11,12.05,0.0,0.01,1.22,0.0,0.02,0.0,0.2,0.2,0.25,0.0,0.0</t>
+    <t>19.0,5.26,0.88,0.63,1.4,0.0,13.43,1.0,0.0,1.0,2,0,0.0,0.03,0.0,0.26,0.08,0.11,0.03,0.03,0.03,0.05,0.0,0.0,0.0,2.14,10.44,5.39,2.18,2.84,0.77,0.11,12.05,0.0,0.01,1.22,0,0,0.0,0.02,0.0,0.21,0.06,0.22,0.06,0.06,0.06,0.03,0.13,0.0,0.0,2.35</t>
   </si>
   <si>
     <t>etball in my neighborhood.</t>
@@ -90,7 +90,7 @@
     <t>arg96566</t>
   </si>
   <si>
-    <t>647,0.2,20.64,0.0,0.05,1.0,0.0,0.04,0.0,0.35,0.55,0.5,0.08,0.0,303,0.0,13.03,1.0,0.02,1.25,0.0,0.02,0.0,0.2,0.15,0.1,0.08,0.0</t>
+    <t>18.6,6.96,2.16,1.58,1.37,0.2,20.64,0.0,0.05,1.0,0,0,0.0,0.04,25.0,0.3,0.14,0.22,0.06,0.06,0.05,0.03,0.38,0.0,0.0,2.09,13.75,5.51,1.28,1.26,1.01,0.0,13.03,1.0,0.02,1.25,2,0,0.0,0.02,0.0,0.24,0.11,0.13,0.07,0.07,0.04,0.04,0.0,0.0,0.0,2.9</t>
   </si>
   <si>
     <t>simply. so that is the reason w</t>
@@ -129,64 +129,64 @@
     <t>compulsory.The minimum length for an argument is 50 characters. The purpose of this restriction is to cut down on the amount of dumb jokes, so we can keep the quality of debate and discourse as high as possible.</t>
   </si>
   <si>
-    <t>190,0.2,11.0,0.0,0.0,1.2,0.0,0.03,0.0,0.05,0.1,0.1,0.0,0.0,303,0.0,13.03,1.0,0.02,1.25,0.0,0.02,0.0,0.2,0.15,0.1,0.08,0.0</t>
+    <t>7.0,5.43,0.81,1.58,0.51,0.2,11.0,0.0,0.0,1.2,2,0,0.0,0.03,0.0,0.14,0.06,0.23,0.11,0.11,0.0,0.06,0.25,0.0,0.0,2.67,13.75,5.51,1.28,1.26,1.01,0.0,13.03,1.0,0.02,1.25,2,0,0.0,0.02,0.0,0.24,0.11,0.13,0.07,0.07,0.04,0.04,0.0,0.0,0.0,2.9</t>
   </si>
   <si>
     <t>arg202607</t>
   </si>
   <si>
-    <t>67,1.0,15.72,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,507,0.11,12.05,0.0,0.01,1.22,0.0,0.02,0.0,0.2,0.2,0.25,0.0,0.0</t>
+    <t>11.0,6.09,0.26,0.32,0.81,1.0,15.72,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.18,0.09,0.09,0.09,0.09,0.0,0.0,0.0,0.0,6.25,10.44,5.39,2.18,2.84,0.77,0.11,12.05,0.0,0.01,1.22,0,0,0.0,0.02,0.0,0.21,0.06,0.22,0.06,0.06,0.06,0.03,0.13,0.0,0.0,2.35</t>
   </si>
   <si>
     <t>arg407143</t>
   </si>
   <si>
-    <t>121,0.0,8.61,0.0,0.04,1.0,0.0,0.04,0.0,0.1,0.1,0.1,0.08,0.0,117,0.0,18.15,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>190,0.2,11.0,0.0,0.0,1.2,0.0,0.03,0.0,0.05,0.1,0.1,0.0,0.0,121,0.0,8.61,0.0,0.04,1.0,0.0,0.04,0.0,0.1,0.1,0.1,0.08,0.0</t>
+    <t>13.0,4.65,0.6,0.63,0.96,0.0,8.61,0.0,0.04,1.0,0,0,0.0,0.04,0.0,0.27,0.04,0.31,0.04,0.04,0.08,0.0,0.0,0.0,0.0,2.25,9.0,6.5,0.42,0.63,0.66,0.0,18.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.28,0.22,0.17,0.0,0.0,0.0,0.06,0.0,0.0,0.0,3.5</t>
+  </si>
+  <si>
+    <t>7.0,5.43,0.81,1.58,0.51,0.2,11.0,0.0,0.0,1.2,2,0,0.0,0.03,0.0,0.14,0.06,0.23,0.11,0.11,0.0,0.06,0.25,0.0,0.0,2.67,13.0,4.65,0.6,0.63,0.96,0.0,8.61,0.0,0.04,1.0,0,0,0.0,0.04,0.0,0.27,0.04,0.31,0.04,0.04,0.08,0.0,0.0,0.0,0.0,2.25</t>
   </si>
   <si>
     <t>arg625211</t>
   </si>
   <si>
-    <t>67,1.0,15.72,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,384,0.0,15.37,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.17,0.5</t>
-  </si>
-  <si>
-    <t>63,0.0,0.12,0.0,0.07,2.33,0.0,0.13,0.0,0.1,0.1,0.1,0.0,0.0,117,0.0,18.15,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
+    <t>11.0,6.09,0.26,0.32,0.81,1.0,15.72,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.18,0.09,0.09,0.09,0.09,0.0,0.0,0.0,0.0,6.25,13.2,5.82,1.53,1.58,0.97,0.0,15.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.14,0.18,0.09,0.09,0.06,0.0,0.0,0.5,0.5,2.47</t>
+  </si>
+  <si>
+    <t>5.0,4.2,0.35,0.95,0.37,0.0,0.12,0.0,0.07,2.33,0,0,0.0,0.13,0.0,0.27,0.07,0.33,0.07,0.07,0.27,0.0,0.0,0.0,0.0,2.25,9.0,6.5,0.42,0.63,0.66,0.0,18.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.28,0.22,0.17,0.0,0.0,0.0,0.06,0.0,0.0,0.0,3.5</t>
   </si>
   <si>
     <t>arg216634</t>
   </si>
   <si>
-    <t>248,0.25,13.18,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.2,0.25,0.0,0.0,112,0.0,11.91,0.0,0.0,2.0,0.0,0.05,0.0,0.1,0.2,0.2,0.0,0.0</t>
+    <t>11.25,5.51,1.04,1.26,0.83,0.25,13.18,0.0,0.0,1.0,3,0,0.0,0.07,0.0,0.24,0.09,0.18,0.09,0.09,0.04,0.0,0.0,0.0,0.0,2.0,22.0,5.09,0.51,0.32,1.62,0.0,11.91,0.0,0.0,2.0,0,0,0.0,0.05,0.0,0.14,0.14,0.23,0.14,0.14,0.09,0.05,0.13,0.0,0.0,3.0</t>
   </si>
   <si>
     <t>arg351382</t>
   </si>
   <si>
-    <t>84,0.5,13.99,0.0,0.07,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,298,0.67,13.7,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.2,0.2,0.0,0.0</t>
+    <t>7.0,6.0,0.32,0.63,0.51,0.5,13.99,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.36,0.21,0.21,0.0,0.0,0.07,0.0,0.0,0.0,0.0,2.57,18.33,5.42,1.28,0.95,1.35,0.67,13.7,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.22,0.18,0.11,0.09,0.09,0.05,0.02,0.0,0.0,0.0,2.94</t>
   </si>
   <si>
     <t>arg283063</t>
   </si>
   <si>
-    <t>200,0.0,13.43,1.0,0.0,1.0,0.0,0.03,0.0,0.15,0.05,0.0,0.08,0.0,146,0.0,9.6,0.0,0.03,1.0,0.0,0.1,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>200,0.0,13.43,1.0,0.0,1.0,0.0,0.03,0.0,0.15,0.05,0.0,0.08,0.0,219,0.33,12.23,0.0,0.03,5.67,0.0,0.03,0.0,0.05,0.2,0.2,0.17,0.25</t>
-  </si>
-  <si>
-    <t>84,0.5,13.99,0.0,0.07,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,320,0.25,9.79,1.0,0.03,1.75,0.0,0.05,0.0,0.3,0.3,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>298,0.67,13.7,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.2,0.2,0.0,0.0,121,0.0,8.61,0.0,0.04,1.0,0.0,0.04,0.0,0.1,0.1,0.1,0.08,0.0</t>
-  </si>
-  <si>
-    <t>63,0.0,0.12,0.0,0.07,2.33,0.0,0.13,0.0,0.1,0.1,0.1,0.0,0.0,384,0.0,15.37,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.17,0.5</t>
-  </si>
-  <si>
-    <t>647,0.2,20.64,0.0,0.05,1.0,0.0,0.04,0.0,0.35,0.55,0.5,0.08,0.0,121,0.0,8.61,0.0,0.04,1.0,0.0,0.04,0.0,0.1,0.1,0.1,0.08,0.0</t>
+    <t>19.0,5.26,0.88,0.63,1.4,0.0,13.43,1.0,0.0,1.0,2,0,0.0,0.03,0.0,0.26,0.08,0.11,0.03,0.03,0.03,0.05,0.0,0.0,0.0,2.14,15.5,4.71,0.72,0.63,1.14,0.0,9.6,0.0,0.03,1.0,0,0,0.0,0.1,0.0,0.23,0.1,0.13,0.0,0.0,0.06,0.0,0.0,0.0,0.0,2.18</t>
+  </si>
+  <si>
+    <t>19.0,5.26,0.88,0.63,1.4,0.0,13.43,1.0,0.0,1.0,2,0,0.0,0.03,0.0,0.26,0.08,0.11,0.03,0.03,0.03,0.05,0.0,0.0,0.0,2.14,13.0,5.62,0.91,0.95,0.96,0.33,12.23,0.0,0.03,5.67,0,0,0.0,0.03,0.0,0.28,0.13,0.15,0.08,0.08,0.03,0.03,0.13,0.25,0.25,2.0</t>
+  </si>
+  <si>
+    <t>7.0,6.0,0.32,0.63,0.51,0.5,13.99,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.36,0.21,0.21,0.0,0.0,0.07,0.0,0.0,0.0,0.0,2.57,15.75,5.08,1.46,1.26,1.16,0.25,9.79,1.0,0.03,1.75,0,0,0.0,0.05,0.0,0.17,0.14,0.19,0.08,0.08,0.05,0.0,0.0,0.0,0.0,2.89</t>
+  </si>
+  <si>
+    <t>18.33,5.42,1.28,0.95,1.35,0.67,13.7,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.22,0.18,0.11,0.09,0.09,0.05,0.02,0.0,0.0,0.0,2.94,13.0,4.65,0.6,0.63,0.96,0.0,8.61,0.0,0.04,1.0,0,0,0.0,0.04,0.0,0.27,0.04,0.31,0.04,0.04,0.08,0.0,0.0,0.0,0.0,2.25</t>
+  </si>
+  <si>
+    <t>5.0,4.2,0.35,0.95,0.37,0.0,0.12,0.0,0.07,2.33,0,0,0.0,0.13,0.0,0.27,0.07,0.33,0.07,0.07,0.27,0.0,0.0,0.0,0.0,2.25,13.2,5.82,1.53,1.58,0.97,0.0,15.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.14,0.18,0.09,0.09,0.06,0.0,0.0,0.5,0.5,2.47</t>
+  </si>
+  <si>
+    <t>18.6,6.96,2.16,1.58,1.37,0.2,20.64,0.0,0.05,1.0,0,0,0.0,0.04,25.0,0.3,0.14,0.22,0.06,0.06,0.05,0.03,0.38,0.0,0.0,2.09,13.0,4.65,0.6,0.63,0.96,0.0,8.61,0.0,0.04,1.0,0,0,0.0,0.04,0.0,0.27,0.04,0.31,0.04,0.04,0.08,0.0,0.0,0.0,0.0,2.25</t>
   </si>
   <si>
     <t>really easy. they dont need to</t>
@@ -228,22 +228,22 @@
     <t>arg39274</t>
   </si>
   <si>
-    <t>67,1.0,15.72,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,374,0.17,13.06,0.0,0.04,1.0,0.0,0.04,0.0,0.25,0.4,0.3,0.0,0.0</t>
+    <t>11.0,6.09,0.26,0.32,0.81,1.0,15.72,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.18,0.09,0.09,0.09,0.09,0.0,0.0,0.0,0.0,6.25,11.33,5.5,1.58,1.89,0.83,0.17,13.06,0.0,0.04,1.0,1,0,0.0,0.04,0.0,0.22,0.15,0.19,0.1,0.1,0.03,0.01,0.0,0.0,0.0,2.36</t>
   </si>
   <si>
     <t>arg337014</t>
   </si>
   <si>
-    <t>132,1.0,19.76,0.0,0.05,1.0,0.0,0.05,0.0,0.15,0.15,0.15,0.33,0.0,200,0.0,13.43,1.0,0.0,1.0,0.0,0.03,0.0,0.15,0.05,0.0,0.08,0.0</t>
+    <t>20.0,6.6,0.46,0.32,1.47,1.0,19.76,0.0,0.05,1.0,0,0,0.0,0.05,0.0,0.25,0.05,0.15,0.0,0.0,0.0,0.05,0.0,0.0,0.0,3.4,19.0,5.26,0.88,0.63,1.4,0.0,13.43,1.0,0.0,1.0,2,0,0.0,0.03,0.0,0.26,0.08,0.11,0.03,0.03,0.03,0.05,0.0,0.0,0.0,2.14</t>
   </si>
   <si>
     <t>arg271353</t>
   </si>
   <si>
-    <t>440,0.67,12.74,0.0,0.01,1.33,0.0,0.07,0.0,0.15,0.5,0.55,0.0,0.0,67,1.0,15.72,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>647,0.2,20.64,0.0,0.05,1.0,0.0,0.04,0.0,0.35,0.55,0.5,0.08,0.0,84,0.5,13.99,0.0,0.07,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
+    <t>29.0,5.06,2.02,0.95,2.13,0.67,12.74,0.0,0.01,1.33,5,0,0.0,0.07,0.0,0.16,0.1,0.25,0.09,0.09,0.05,0.0,0.0,0.0,0.0,3.36,11.0,6.09,0.26,0.32,0.81,1.0,15.72,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.18,0.09,0.09,0.09,0.09,0.0,0.0,0.0,0.0,6.25</t>
+  </si>
+  <si>
+    <t>18.6,6.96,2.16,1.58,1.37,0.2,20.64,0.0,0.05,1.0,0,0,0.0,0.04,25.0,0.3,0.14,0.22,0.06,0.06,0.05,0.03,0.38,0.0,0.0,2.09,7.0,6.0,0.32,0.63,0.51,0.5,13.99,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.36,0.21,0.21,0.0,0.0,0.07,0.0,0.0,0.0,0.0,2.57</t>
   </si>
   <si>
     <t>roblems. Also, we shouldnt need</t>
@@ -273,28 +273,28 @@
     <t>.</t>
   </si>
   <si>
-    <t>63,0.0,0.12,0.0,0.07,2.33,0.0,0.13,0.0,0.1,0.1,0.1,0.0,0.0,647,0.2,20.64,0.0,0.05,1.0,0.0,0.04,0.0,0.35,0.55,0.5,0.08,0.0</t>
+    <t>5.0,4.2,0.35,0.95,0.37,0.0,0.12,0.0,0.07,2.33,0,0,0.0,0.13,0.0,0.27,0.07,0.33,0.07,0.07,0.27,0.0,0.0,0.0,0.0,2.25,18.6,6.96,2.16,1.58,1.37,0.2,20.64,0.0,0.05,1.0,0,0,0.0,0.04,25.0,0.3,0.14,0.22,0.06,0.06,0.05,0.03,0.38,0.0,0.0,2.09</t>
   </si>
   <si>
     <t>PE classes are severely lacking</t>
   </si>
   <si>
-    <t>67,1.0,15.72,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,248,0.25,13.18,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.2,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>374,0.17,13.06,0.0,0.04,1.0,0.0,0.04,0.0,0.25,0.4,0.3,0.0,0.0,303,0.0,13.03,1.0,0.02,1.25,0.0,0.02,0.0,0.2,0.15,0.1,0.08,0.0</t>
-  </si>
-  <si>
-    <t>200,0.0,13.43,1.0,0.0,1.0,0.0,0.03,0.0,0.15,0.05,0.0,0.08,0.0,384,0.0,15.37,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.17,0.5</t>
-  </si>
-  <si>
-    <t>440,0.67,12.74,0.0,0.01,1.33,0.0,0.07,0.0,0.15,0.5,0.55,0.0,0.0,112,0.0,11.91,0.0,0.0,2.0,0.0,0.05,0.0,0.1,0.2,0.2,0.0,0.0</t>
+    <t>11.0,6.09,0.26,0.32,0.81,1.0,15.72,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.18,0.09,0.09,0.09,0.09,0.0,0.0,0.0,0.0,6.25,11.25,5.51,1.04,1.26,0.83,0.25,13.18,0.0,0.0,1.0,3,0,0.0,0.07,0.0,0.24,0.09,0.18,0.09,0.09,0.04,0.0,0.0,0.0,0.0,2.0</t>
+  </si>
+  <si>
+    <t>11.33,5.5,1.58,1.89,0.83,0.17,13.06,0.0,0.04,1.0,1,0,0.0,0.04,0.0,0.22,0.15,0.19,0.1,0.1,0.03,0.01,0.0,0.0,0.0,2.36,13.75,5.51,1.28,1.26,1.01,0.0,13.03,1.0,0.02,1.25,2,0,0.0,0.02,0.0,0.24,0.11,0.13,0.07,0.07,0.04,0.04,0.0,0.0,0.0,2.9</t>
+  </si>
+  <si>
+    <t>19.0,5.26,0.88,0.63,1.4,0.0,13.43,1.0,0.0,1.0,2,0,0.0,0.03,0.0,0.26,0.08,0.11,0.03,0.03,0.03,0.05,0.0,0.0,0.0,2.14,13.2,5.82,1.53,1.58,0.97,0.0,15.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.14,0.18,0.09,0.09,0.06,0.0,0.0,0.5,0.5,2.47</t>
+  </si>
+  <si>
+    <t>29.0,5.06,2.02,0.95,2.13,0.67,12.74,0.0,0.01,1.33,5,0,0.0,0.07,0.0,0.16,0.1,0.25,0.09,0.09,0.05,0.0,0.0,0.0,0.0,3.36,22.0,5.09,0.51,0.32,1.62,0.0,11.91,0.0,0.0,2.0,0,0,0.0,0.05,0.0,0.14,0.14,0.23,0.14,0.14,0.09,0.05,0.13,0.0,0.0,3.0</t>
   </si>
   <si>
     <t>arg96565</t>
   </si>
   <si>
-    <t>647,0.2,20.64,0.0,0.05,1.0,0.0,0.04,0.0,0.35,0.55,0.5,0.08,0.0,117,0.0,14.76,0.0,0.05,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
+    <t>18.6,6.96,2.16,1.58,1.37,0.2,20.64,0.0,0.05,1.0,0,0,0.0,0.04,25.0,0.3,0.14,0.22,0.06,0.06,0.05,0.03,0.38,0.0,0.0,2.09,10.0,5.85,0.46,0.63,0.74,0.0,14.76,0.0,0.05,1.0,1,0,0.0,0.0,0.0,0.2,0.1,0.15,0.1,0.1,0.05,0.0,0.0,0.0,0.0,1.29</t>
   </si>
   <si>
     <t>ot take pe. 4 example some r al</t>
@@ -330,7 +330,7 @@
     <t>eaddy training like crazy</t>
   </si>
   <si>
-    <t>647,0.2,20.64,0.0,0.05,1.0,0.0,0.04,0.0,0.35,0.55,0.5,0.08,0.0,67,1.0,15.72,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
+    <t>18.6,6.96,2.16,1.58,1.37,0.2,20.64,0.0,0.05,1.0,0,0,0.0,0.04,25.0,0.3,0.14,0.22,0.06,0.06,0.05,0.03,0.38,0.0,0.0,2.09,11.0,6.09,0.26,0.32,0.81,1.0,15.72,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.18,0.09,0.09,0.09,0.09,0.0,0.0,0.0,0.0,6.25</t>
   </si>
   <si>
     <t>apply physical exercises in th</t>
@@ -345,7 +345,7 @@
     <t>'s!</t>
   </si>
   <si>
-    <t>440,0.67,12.74,0.0,0.01,1.33,0.0,0.07,0.0,0.15,0.5,0.55,0.0,0.0,384,0.0,15.37,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.17,0.5</t>
+    <t>29.0,5.06,2.02,0.95,2.13,0.67,12.74,0.0,0.01,1.33,5,0,0.0,0.07,0.0,0.16,0.1,0.25,0.09,0.09,0.05,0.0,0.0,0.0,0.0,3.36,13.2,5.82,1.53,1.58,0.97,0.0,15.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.14,0.18,0.09,0.09,0.06,0.0,0.0,0.5,0.5,2.47</t>
   </si>
   <si>
     <t>contrast, people like me have l</t>
@@ -387,37 +387,37 @@
     <t>arg639971</t>
   </si>
   <si>
-    <t>101,0.0,15.32,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,440,0.67,12.74,0.0,0.01,1.33,0.0,0.07,0.0,0.15,0.5,0.55,0.0,0.0</t>
-  </si>
-  <si>
-    <t>190,0.2,11.0,0.0,0.0,1.2,0.0,0.03,0.0,0.05,0.1,0.1,0.0,0.0,298,0.67,13.7,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>112,0.0,11.91,0.0,0.0,2.0,0.0,0.05,0.0,0.1,0.2,0.2,0.0,0.0,507,0.11,12.05,0.0,0.01,1.22,0.0,0.02,0.0,0.2,0.2,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>320,0.25,9.79,1.0,0.03,1.75,0.0,0.05,0.0,0.3,0.3,0.35,0.0,0.0,303,0.0,13.03,1.0,0.02,1.25,0.0,0.02,0.0,0.2,0.15,0.1,0.08,0.0</t>
-  </si>
-  <si>
-    <t>121,0.0,8.61,0.0,0.04,1.0,0.0,0.04,0.0,0.1,0.1,0.1,0.08,0.0,440,0.67,12.74,0.0,0.01,1.33,0.0,0.07,0.0,0.15,0.5,0.55,0.0,0.0</t>
-  </si>
-  <si>
-    <t>117,0.0,14.76,0.0,0.05,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,374,0.17,13.06,0.0,0.04,1.0,0.0,0.04,0.0,0.25,0.4,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>320,0.25,9.79,1.0,0.03,1.75,0.0,0.05,0.0,0.3,0.3,0.35,0.0,0.0,67,1.0,15.72,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
+    <t>17.0,5.94,0.39,0.32,1.25,0.0,15.32,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.06,0.24,0.0,0.0,0.06,0.0,0.0,0.0,0.0,6.17,29.0,5.06,2.02,0.95,2.13,0.67,12.74,0.0,0.01,1.33,5,0,0.0,0.07,0.0,0.16,0.1,0.25,0.09,0.09,0.05,0.0,0.0,0.0,0.0,3.36</t>
+  </si>
+  <si>
+    <t>7.0,5.43,0.81,1.58,0.51,0.2,11.0,0.0,0.0,1.2,2,0,0.0,0.03,0.0,0.14,0.06,0.23,0.11,0.11,0.0,0.06,0.25,0.0,0.0,2.67,18.33,5.42,1.28,0.95,1.35,0.67,13.7,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.22,0.18,0.11,0.09,0.09,0.05,0.02,0.0,0.0,0.0,2.94</t>
+  </si>
+  <si>
+    <t>22.0,5.09,0.51,0.32,1.62,0.0,11.91,0.0,0.0,2.0,0,0,0.0,0.05,0.0,0.14,0.14,0.23,0.14,0.14,0.09,0.05,0.13,0.0,0.0,3.0,10.44,5.39,2.18,2.84,0.77,0.11,12.05,0.0,0.01,1.22,0,0,0.0,0.02,0.0,0.21,0.06,0.22,0.06,0.06,0.06,0.03,0.13,0.0,0.0,2.35</t>
+  </si>
+  <si>
+    <t>15.75,5.08,1.46,1.26,1.16,0.25,9.79,1.0,0.03,1.75,0,0,0.0,0.05,0.0,0.17,0.14,0.19,0.08,0.08,0.05,0.0,0.0,0.0,0.0,2.89,13.75,5.51,1.28,1.26,1.01,0.0,13.03,1.0,0.02,1.25,2,0,0.0,0.02,0.0,0.24,0.11,0.13,0.07,0.07,0.04,0.04,0.0,0.0,0.0,2.9</t>
+  </si>
+  <si>
+    <t>13.0,4.65,0.6,0.63,0.96,0.0,8.61,0.0,0.04,1.0,0,0,0.0,0.04,0.0,0.27,0.04,0.31,0.04,0.04,0.08,0.0,0.0,0.0,0.0,2.25,29.0,5.06,2.02,0.95,2.13,0.67,12.74,0.0,0.01,1.33,5,0,0.0,0.07,0.0,0.16,0.1,0.25,0.09,0.09,0.05,0.0,0.0,0.0,0.0,3.36</t>
+  </si>
+  <si>
+    <t>10.0,5.85,0.46,0.63,0.74,0.0,14.76,0.0,0.05,1.0,1,0,0.0,0.0,0.0,0.2,0.1,0.15,0.1,0.1,0.05,0.0,0.0,0.0,0.0,1.29,11.33,5.5,1.58,1.89,0.83,0.17,13.06,0.0,0.04,1.0,1,0,0.0,0.04,0.0,0.22,0.15,0.19,0.1,0.1,0.03,0.01,0.0,0.0,0.0,2.36</t>
+  </si>
+  <si>
+    <t>15.75,5.08,1.46,1.26,1.16,0.25,9.79,1.0,0.03,1.75,0,0,0.0,0.05,0.0,0.17,0.14,0.19,0.08,0.08,0.05,0.0,0.0,0.0,0.0,2.89,11.0,6.09,0.26,0.32,0.81,1.0,15.72,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.18,0.09,0.09,0.09,0.09,0.0,0.0,0.0,0.0,6.25</t>
   </si>
   <si>
     <t>arg203471</t>
   </si>
   <si>
-    <t>117,0.0,14.76,0.0,0.05,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,338,0.25,12.59,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>117,0.0,14.76,0.0,0.05,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,440,0.67,12.74,0.0,0.01,1.33,0.0,0.07,0.0,0.15,0.5,0.55,0.0,0.0</t>
-  </si>
-  <si>
-    <t>219,0.33,12.23,0.0,0.03,5.67,0.0,0.03,0.0,0.05,0.2,0.2,0.17,0.25,507,0.11,12.05,0.0,0.01,1.22,0.0,0.02,0.0,0.2,0.2,0.25,0.0,0.0</t>
+    <t>10.0,5.85,0.46,0.63,0.74,0.0,14.76,0.0,0.05,1.0,1,0,0.0,0.0,0.0,0.2,0.1,0.15,0.1,0.1,0.05,0.0,0.0,0.0,0.0,1.29,16.25,5.2,1.51,1.26,1.19,0.25,12.59,0.0,0.0,1.0,0,0,0.0,0.0,12.5,0.23,0.06,0.2,0.06,0.06,0.05,0.0,0.0,0.0,0.0,2.33</t>
+  </si>
+  <si>
+    <t>10.0,5.85,0.46,0.63,0.74,0.0,14.76,0.0,0.05,1.0,1,0,0.0,0.0,0.0,0.2,0.1,0.15,0.1,0.1,0.05,0.0,0.0,0.0,0.0,1.29,29.0,5.06,2.02,0.95,2.13,0.67,12.74,0.0,0.01,1.33,5,0,0.0,0.07,0.0,0.16,0.1,0.25,0.09,0.09,0.05,0.0,0.0,0.0,0.0,3.36</t>
+  </si>
+  <si>
+    <t>13.0,5.62,0.91,0.95,0.96,0.33,12.23,0.0,0.03,5.67,0,0,0.0,0.03,0.0,0.28,0.13,0.15,0.08,0.08,0.03,0.03,0.13,0.25,0.25,2.0,10.44,5.39,2.18,2.84,0.77,0.11,12.05,0.0,0.01,1.22,0,0,0.0,0.02,0.0,0.21,0.06,0.22,0.06,0.06,0.06,0.03,0.13,0.0,0.0,2.35</t>
   </si>
   <si>
     <t>es hiking and plays basketball</t>
@@ -438,10 +438,10 @@
     <t>hood.</t>
   </si>
   <si>
-    <t>132,1.0,19.76,0.0,0.05,1.0,0.0,0.05,0.0,0.15,0.15,0.15,0.33,0.0,67,1.0,15.72,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>647,0.2,20.64,0.0,0.05,1.0,0.0,0.04,0.0,0.35,0.55,0.5,0.08,0.0,190,0.2,11.0,0.0,0.0,1.2,0.0,0.03,0.0,0.05,0.1,0.1,0.0,0.0</t>
+    <t>20.0,6.6,0.46,0.32,1.47,1.0,19.76,0.0,0.05,1.0,0,0,0.0,0.05,0.0,0.25,0.05,0.15,0.0,0.0,0.0,0.05,0.0,0.0,0.0,3.4,11.0,6.09,0.26,0.32,0.81,1.0,15.72,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.18,0.09,0.09,0.09,0.09,0.0,0.0,0.0,0.0,6.25</t>
+  </si>
+  <si>
+    <t>18.6,6.96,2.16,1.58,1.37,0.2,20.64,0.0,0.05,1.0,0,0,0.0,0.04,25.0,0.3,0.14,0.22,0.06,0.06,0.05,0.03,0.38,0.0,0.0,2.09,7.0,5.43,0.81,1.58,0.51,0.2,11.0,0.0,0.0,1.2,2,0,0.0,0.03,0.0,0.14,0.06,0.23,0.11,0.11,0.0,0.06,0.25,0.0,0.0,2.67</t>
   </si>
   <si>
     <t>n 8th grade. If students want t</t>
@@ -480,43 +480,43 @@
     <t>arg110967</t>
   </si>
   <si>
-    <t>317,0.2,13.69,0.0,0.05,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.08,0.25,117,0.0,14.76,0.0,0.05,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>63,0.0,0.12,0.0,0.07,2.33,0.0,0.13,0.0,0.1,0.1,0.1,0.0,0.0,440,0.67,12.74,0.0,0.01,1.33,0.0,0.07,0.0,0.15,0.5,0.55,0.0,0.0</t>
-  </si>
-  <si>
-    <t>317,0.2,13.69,0.0,0.05,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.08,0.25,200,0.0,13.43,1.0,0.0,1.0,0.0,0.03,0.0,0.15,0.05,0.0,0.08,0.0</t>
-  </si>
-  <si>
-    <t>303,0.0,13.03,1.0,0.02,1.25,0.0,0.02,0.0,0.2,0.15,0.1,0.08,0.0,274,1.0,17.9,0.0,0.04,1.0,0.0,0.0,0.0,0.2,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>117,0.0,18.15,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,112,0.0,11.91,0.0,0.0,2.0,0.0,0.05,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>121,0.0,8.61,0.0,0.04,1.0,0.0,0.04,0.0,0.1,0.1,0.1,0.08,0.0,338,0.25,12.59,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>338,0.25,12.59,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0,67,1.0,15.72,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>384,0.0,15.37,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.17,0.5,303,0.0,13.03,1.0,0.02,1.25,0.0,0.02,0.0,0.2,0.15,0.1,0.08,0.0</t>
+    <t>11.4,5.56,1.32,1.58,0.84,0.2,13.69,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.23,0.09,0.21,0.05,0.05,0.11,0.02,0.0,0.25,0.25,2.5,10.0,5.85,0.46,0.63,0.74,0.0,14.76,0.0,0.05,1.0,1,0,0.0,0.0,0.0,0.2,0.1,0.15,0.1,0.1,0.05,0.0,0.0,0.0,0.0,1.29</t>
+  </si>
+  <si>
+    <t>5.0,4.2,0.35,0.95,0.37,0.0,0.12,0.0,0.07,2.33,0,0,0.0,0.13,0.0,0.27,0.07,0.33,0.07,0.07,0.27,0.0,0.0,0.0,0.0,2.25,29.0,5.06,2.02,0.95,2.13,0.67,12.74,0.0,0.01,1.33,5,0,0.0,0.07,0.0,0.16,0.1,0.25,0.09,0.09,0.05,0.0,0.0,0.0,0.0,3.36</t>
+  </si>
+  <si>
+    <t>11.4,5.56,1.32,1.58,0.84,0.2,13.69,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.23,0.09,0.21,0.05,0.05,0.11,0.02,0.0,0.25,0.25,2.5,19.0,5.26,0.88,0.63,1.4,0.0,13.43,1.0,0.0,1.0,2,0,0.0,0.03,0.0,0.26,0.08,0.11,0.03,0.03,0.03,0.05,0.0,0.0,0.0,2.14</t>
+  </si>
+  <si>
+    <t>13.75,5.51,1.28,1.26,1.01,0.0,13.03,1.0,0.02,1.25,2,0,0.0,0.02,0.0,0.24,0.11,0.13,0.07,0.07,0.04,0.04,0.0,0.0,0.0,2.9,22.5,6.09,1.04,0.63,1.65,1.0,17.9,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.33,0.11,0.13,0.13,0.13,0.02,0.0,0.0,0.0,0.0,3.28</t>
+  </si>
+  <si>
+    <t>9.0,6.5,0.42,0.63,0.66,0.0,18.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.28,0.22,0.17,0.0,0.0,0.0,0.06,0.0,0.0,0.0,3.5,22.0,5.09,0.51,0.32,1.62,0.0,11.91,0.0,0.0,2.0,0,0,0.0,0.05,0.0,0.14,0.14,0.23,0.14,0.14,0.09,0.05,0.13,0.0,0.0,3.0</t>
+  </si>
+  <si>
+    <t>13.0,4.65,0.6,0.63,0.96,0.0,8.61,0.0,0.04,1.0,0,0,0.0,0.04,0.0,0.27,0.04,0.31,0.04,0.04,0.08,0.0,0.0,0.0,0.0,2.25,16.25,5.2,1.51,1.26,1.19,0.25,12.59,0.0,0.0,1.0,0,0,0.0,0.0,12.5,0.23,0.06,0.2,0.06,0.06,0.05,0.0,0.0,0.0,0.0,2.33</t>
+  </si>
+  <si>
+    <t>16.25,5.2,1.51,1.26,1.19,0.25,12.59,0.0,0.0,1.0,0,0,0.0,0.0,12.5,0.23,0.06,0.2,0.06,0.06,0.05,0.0,0.0,0.0,0.0,2.33,11.0,6.09,0.26,0.32,0.81,1.0,15.72,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.18,0.09,0.09,0.09,0.09,0.0,0.0,0.0,0.0,6.25</t>
+  </si>
+  <si>
+    <t>13.2,5.82,1.53,1.58,0.97,0.0,15.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.14,0.18,0.09,0.09,0.06,0.0,0.0,0.5,0.5,2.47,13.75,5.51,1.28,1.26,1.01,0.0,13.03,1.0,0.02,1.25,2,0,0.0,0.02,0.0,0.24,0.11,0.13,0.07,0.07,0.04,0.04,0.0,0.0,0.0,2.9</t>
   </si>
   <si>
     <t>sible.</t>
   </si>
   <si>
-    <t>67,1.0,15.72,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,317,0.2,13.69,0.0,0.05,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.08,0.25</t>
-  </si>
-  <si>
-    <t>200,0.0,13.43,1.0,0.0,1.0,0.0,0.03,0.0,0.15,0.05,0.0,0.08,0.0,101,0.0,15.32,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>117,0.0,18.15,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,84,0.5,13.99,0.0,0.07,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>647,0.2,20.64,0.0,0.05,1.0,0.0,0.04,0.0,0.35,0.55,0.5,0.08,0.0,200,0.0,13.43,1.0,0.0,1.0,0.0,0.03,0.0,0.15,0.05,0.0,0.08,0.0</t>
+    <t>11.0,6.09,0.26,0.32,0.81,1.0,15.72,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.18,0.09,0.09,0.09,0.09,0.0,0.0,0.0,0.0,6.25,11.4,5.56,1.32,1.58,0.84,0.2,13.69,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.23,0.09,0.21,0.05,0.05,0.11,0.02,0.0,0.25,0.25,2.5</t>
+  </si>
+  <si>
+    <t>19.0,5.26,0.88,0.63,1.4,0.0,13.43,1.0,0.0,1.0,2,0,0.0,0.03,0.0,0.26,0.08,0.11,0.03,0.03,0.03,0.05,0.0,0.0,0.0,2.14,17.0,5.94,0.39,0.32,1.25,0.0,15.32,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.06,0.24,0.0,0.0,0.06,0.0,0.0,0.0,0.0,6.17</t>
+  </si>
+  <si>
+    <t>9.0,6.5,0.42,0.63,0.66,0.0,18.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.28,0.22,0.17,0.0,0.0,0.0,0.06,0.0,0.0,0.0,3.5,7.0,6.0,0.32,0.63,0.51,0.5,13.99,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.36,0.21,0.21,0.0,0.0,0.07,0.0,0.0,0.0,0.0,2.57</t>
+  </si>
+  <si>
+    <t>18.6,6.96,2.16,1.58,1.37,0.2,20.64,0.0,0.05,1.0,0,0,0.0,0.04,25.0,0.3,0.14,0.22,0.06,0.06,0.05,0.03,0.38,0.0,0.0,2.09,19.0,5.26,0.88,0.63,1.4,0.0,13.43,1.0,0.0,1.0,2,0,0.0,0.03,0.0,0.26,0.08,0.11,0.03,0.03,0.03,0.05,0.0,0.0,0.0,2.14</t>
   </si>
   <si>
     <t>argument is 50 characters. The</t>
@@ -549,28 +549,28 @@
     <t>cut down on the amount of dumb jokes, so we can keep the quality of debate and discourse as high as possible.</t>
   </si>
   <si>
-    <t>146,0.0,9.6,0.0,0.03,1.0,0.0,0.1,0.0,0.15,0.25,0.25,0.0,0.0,317,0.2,13.69,0.0,0.05,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.08,0.25</t>
-  </si>
-  <si>
-    <t>384,0.0,15.37,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.17,0.5,274,1.0,17.9,0.0,0.04,1.0,0.0,0.0,0.0,0.2,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>303,0.0,13.03,1.0,0.02,1.25,0.0,0.02,0.0,0.2,0.15,0.1,0.08,0.0,248,0.25,13.18,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.2,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>112,0.0,11.91,0.0,0.0,2.0,0.0,0.05,0.0,0.1,0.2,0.2,0.0,0.0,338,0.25,12.59,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>338,0.25,12.59,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0,200,0.0,13.43,1.0,0.0,1.0,0.0,0.03,0.0,0.15,0.05,0.0,0.08,0.0</t>
-  </si>
-  <si>
-    <t>248,0.25,13.18,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.2,0.25,0.0,0.0,63,0.0,0.12,0.0,0.07,2.33,0.0,0.13,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>384,0.0,15.37,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.17,0.5,248,0.25,13.18,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.2,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>647,0.2,20.64,0.0,0.05,1.0,0.0,0.04,0.0,0.35,0.55,0.5,0.08,0.0,112,0.0,11.91,0.0,0.0,2.0,0.0,0.05,0.0,0.1,0.2,0.2,0.0,0.0</t>
+    <t>15.5,4.71,0.72,0.63,1.14,0.0,9.6,0.0,0.03,1.0,0,0,0.0,0.1,0.0,0.23,0.1,0.13,0.0,0.0,0.06,0.0,0.0,0.0,0.0,2.18,11.4,5.56,1.32,1.58,0.84,0.2,13.69,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.23,0.09,0.21,0.05,0.05,0.11,0.02,0.0,0.25,0.25,2.5</t>
+  </si>
+  <si>
+    <t>13.2,5.82,1.53,1.58,0.97,0.0,15.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.14,0.18,0.09,0.09,0.06,0.0,0.0,0.5,0.5,2.47,22.5,6.09,1.04,0.63,1.65,1.0,17.9,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.33,0.11,0.13,0.13,0.13,0.02,0.0,0.0,0.0,0.0,3.28</t>
+  </si>
+  <si>
+    <t>13.75,5.51,1.28,1.26,1.01,0.0,13.03,1.0,0.02,1.25,2,0,0.0,0.02,0.0,0.24,0.11,0.13,0.07,0.07,0.04,0.04,0.0,0.0,0.0,2.9,11.25,5.51,1.04,1.26,0.83,0.25,13.18,0.0,0.0,1.0,3,0,0.0,0.07,0.0,0.24,0.09,0.18,0.09,0.09,0.04,0.0,0.0,0.0,0.0,2.0</t>
+  </si>
+  <si>
+    <t>22.0,5.09,0.51,0.32,1.62,0.0,11.91,0.0,0.0,2.0,0,0,0.0,0.05,0.0,0.14,0.14,0.23,0.14,0.14,0.09,0.05,0.13,0.0,0.0,3.0,16.25,5.2,1.51,1.26,1.19,0.25,12.59,0.0,0.0,1.0,0,0,0.0,0.0,12.5,0.23,0.06,0.2,0.06,0.06,0.05,0.0,0.0,0.0,0.0,2.33</t>
+  </si>
+  <si>
+    <t>16.25,5.2,1.51,1.26,1.19,0.25,12.59,0.0,0.0,1.0,0,0,0.0,0.0,12.5,0.23,0.06,0.2,0.06,0.06,0.05,0.0,0.0,0.0,0.0,2.33,19.0,5.26,0.88,0.63,1.4,0.0,13.43,1.0,0.0,1.0,2,0,0.0,0.03,0.0,0.26,0.08,0.11,0.03,0.03,0.03,0.05,0.0,0.0,0.0,2.14</t>
+  </si>
+  <si>
+    <t>11.25,5.51,1.04,1.26,0.83,0.25,13.18,0.0,0.0,1.0,3,0,0.0,0.07,0.0,0.24,0.09,0.18,0.09,0.09,0.04,0.0,0.0,0.0,0.0,2.0,5.0,4.2,0.35,0.95,0.37,0.0,0.12,0.0,0.07,2.33,0,0,0.0,0.13,0.0,0.27,0.07,0.33,0.07,0.07,0.27,0.0,0.0,0.0,0.0,2.25</t>
+  </si>
+  <si>
+    <t>13.2,5.82,1.53,1.58,0.97,0.0,15.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.14,0.18,0.09,0.09,0.06,0.0,0.0,0.5,0.5,2.47,11.25,5.51,1.04,1.26,0.83,0.25,13.18,0.0,0.0,1.0,3,0,0.0,0.07,0.0,0.24,0.09,0.18,0.09,0.09,0.04,0.0,0.0,0.0,0.0,2.0</t>
+  </si>
+  <si>
+    <t>18.6,6.96,2.16,1.58,1.37,0.2,20.64,0.0,0.05,1.0,0,0,0.0,0.04,25.0,0.3,0.14,0.22,0.06,0.06,0.05,0.03,0.38,0.0,0.0,2.09,22.0,5.09,0.51,0.32,1.62,0.0,11.91,0.0,0.0,2.0,0,0,0.0,0.05,0.0,0.14,0.14,0.23,0.14,0.14,0.09,0.05,0.13,0.0,0.0,3.0</t>
   </si>
   <si>
     <t>the fat kids just eat too much</t>
@@ -609,19 +609,19 @@
     <t>they will be normal.</t>
   </si>
   <si>
-    <t>121,0.0,8.61,0.0,0.04,1.0,0.0,0.04,0.0,0.1,0.1,0.1,0.08,0.0,219,0.33,12.23,0.0,0.03,5.67,0.0,0.03,0.0,0.05,0.2,0.2,0.17,0.25</t>
-  </si>
-  <si>
-    <t>200,0.0,13.43,1.0,0.0,1.0,0.0,0.03,0.0,0.15,0.05,0.0,0.08,0.0,117,0.0,18.15,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>200,0.0,13.43,1.0,0.0,1.0,0.0,0.03,0.0,0.15,0.05,0.0,0.08,0.0,440,0.67,12.74,0.0,0.01,1.33,0.0,0.07,0.0,0.15,0.5,0.55,0.0,0.0</t>
-  </si>
-  <si>
-    <t>121,0.0,8.61,0.0,0.04,1.0,0.0,0.04,0.0,0.1,0.1,0.1,0.08,0.0,507,0.11,12.05,0.0,0.01,1.22,0.0,0.02,0.0,0.2,0.2,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>101,0.0,15.32,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,647,0.2,20.64,0.0,0.05,1.0,0.0,0.04,0.0,0.35,0.55,0.5,0.08,0.0</t>
+    <t>13.0,4.65,0.6,0.63,0.96,0.0,8.61,0.0,0.04,1.0,0,0,0.0,0.04,0.0,0.27,0.04,0.31,0.04,0.04,0.08,0.0,0.0,0.0,0.0,2.25,13.0,5.62,0.91,0.95,0.96,0.33,12.23,0.0,0.03,5.67,0,0,0.0,0.03,0.0,0.28,0.13,0.15,0.08,0.08,0.03,0.03,0.13,0.25,0.25,2.0</t>
+  </si>
+  <si>
+    <t>19.0,5.26,0.88,0.63,1.4,0.0,13.43,1.0,0.0,1.0,2,0,0.0,0.03,0.0,0.26,0.08,0.11,0.03,0.03,0.03,0.05,0.0,0.0,0.0,2.14,9.0,6.5,0.42,0.63,0.66,0.0,18.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.28,0.22,0.17,0.0,0.0,0.0,0.06,0.0,0.0,0.0,3.5</t>
+  </si>
+  <si>
+    <t>19.0,5.26,0.88,0.63,1.4,0.0,13.43,1.0,0.0,1.0,2,0,0.0,0.03,0.0,0.26,0.08,0.11,0.03,0.03,0.03,0.05,0.0,0.0,0.0,2.14,29.0,5.06,2.02,0.95,2.13,0.67,12.74,0.0,0.01,1.33,5,0,0.0,0.07,0.0,0.16,0.1,0.25,0.09,0.09,0.05,0.0,0.0,0.0,0.0,3.36</t>
+  </si>
+  <si>
+    <t>13.0,4.65,0.6,0.63,0.96,0.0,8.61,0.0,0.04,1.0,0,0,0.0,0.04,0.0,0.27,0.04,0.31,0.04,0.04,0.08,0.0,0.0,0.0,0.0,2.25,10.44,5.39,2.18,2.84,0.77,0.11,12.05,0.0,0.01,1.22,0,0,0.0,0.02,0.0,0.21,0.06,0.22,0.06,0.06,0.06,0.03,0.13,0.0,0.0,2.35</t>
+  </si>
+  <si>
+    <t>17.0,5.94,0.39,0.32,1.25,0.0,15.32,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.06,0.24,0.0,0.0,0.06,0.0,0.0,0.0,0.0,6.17,18.6,6.96,2.16,1.58,1.37,0.2,20.64,0.0,0.05,1.0,0,0,0.0,0.04,25.0,0.3,0.14,0.22,0.06,0.06,0.05,0.03,0.38,0.0,0.0,2.09</t>
   </si>
   <si>
     <t>ow about fitness and nutrition,</t>
@@ -654,7 +654,7 @@
     <t>cking.</t>
   </si>
   <si>
-    <t>507,0.11,12.05,0.0,0.01,1.22,0.0,0.02,0.0,0.2,0.2,0.25,0.0,0.0,384,0.0,15.37,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.17,0.5</t>
+    <t>10.44,5.39,2.18,2.84,0.77,0.11,12.05,0.0,0.01,1.22,0,0,0.0,0.02,0.0,0.21,0.06,0.22,0.06,0.06,0.06,0.03,0.13,0.0,0.0,2.35,13.2,5.82,1.53,1.58,0.97,0.0,15.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.14,0.18,0.09,0.09,0.06,0.0,0.0,0.5,0.5,2.47</t>
   </si>
   <si>
     <t>nd are suitable for long distan</t>
@@ -690,10 +690,10 @@
     <t>s. In contrast, people like me have lesser stamina and only suitable for less intensive exercises. Really, why force everyone to be the same?</t>
   </si>
   <si>
-    <t>200,0.0,13.43,1.0,0.0,1.0,0.0,0.03,0.0,0.15,0.05,0.0,0.08,0.0,190,0.2,11.0,0.0,0.0,1.2,0.0,0.03,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>647,0.2,20.64,0.0,0.05,1.0,0.0,0.04,0.0,0.35,0.55,0.5,0.08,0.0,117,0.0,18.15,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
+    <t>19.0,5.26,0.88,0.63,1.4,0.0,13.43,1.0,0.0,1.0,2,0,0.0,0.03,0.0,0.26,0.08,0.11,0.03,0.03,0.03,0.05,0.0,0.0,0.0,2.14,7.0,5.43,0.81,1.58,0.51,0.2,11.0,0.0,0.0,1.2,2,0,0.0,0.03,0.0,0.14,0.06,0.23,0.11,0.11,0.0,0.06,0.25,0.0,0.0,2.67</t>
+  </si>
+  <si>
+    <t>18.6,6.96,2.16,1.58,1.37,0.2,20.64,0.0,0.05,1.0,0,0,0.0,0.04,25.0,0.3,0.14,0.22,0.06,0.06,0.05,0.03,0.38,0.0,0.0,2.09,9.0,6.5,0.42,0.63,0.66,0.0,18.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.28,0.22,0.17,0.0,0.0,0.0,0.06,0.0,0.0,0.0,3.5</t>
   </si>
   <si>
     <t>ortant. Kids should be more foc</t>
@@ -732,121 +732,121 @@
     <t>veness can cause bullying.</t>
   </si>
   <si>
-    <t>303,0.0,13.03,1.0,0.02,1.25,0.0,0.02,0.0,0.2,0.15,0.1,0.08,0.0,117,0.0,18.15,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>101,0.0,15.32,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,132,1.0,19.76,0.0,0.05,1.0,0.0,0.05,0.0,0.15,0.15,0.15,0.33,0.0</t>
-  </si>
-  <si>
-    <t>274,1.0,17.9,0.0,0.04,1.0,0.0,0.0,0.0,0.2,0.25,0.3,0.0,0.0,117,0.0,18.15,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>200,0.0,13.43,1.0,0.0,1.0,0.0,0.03,0.0,0.15,0.05,0.0,0.08,0.0,274,1.0,17.9,0.0,0.04,1.0,0.0,0.0,0.0,0.2,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>298,0.67,13.7,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.2,0.2,0.0,0.0,101,0.0,15.32,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>63,0.0,0.12,0.0,0.07,2.33,0.0,0.13,0.0,0.1,0.1,0.1,0.0,0.0,374,0.17,13.06,0.0,0.04,1.0,0.0,0.04,0.0,0.25,0.4,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>320,0.25,9.79,1.0,0.03,1.75,0.0,0.05,0.0,0.3,0.3,0.35,0.0,0.0,384,0.0,15.37,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.17,0.5</t>
+    <t>13.75,5.51,1.28,1.26,1.01,0.0,13.03,1.0,0.02,1.25,2,0,0.0,0.02,0.0,0.24,0.11,0.13,0.07,0.07,0.04,0.04,0.0,0.0,0.0,2.9,9.0,6.5,0.42,0.63,0.66,0.0,18.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.28,0.22,0.17,0.0,0.0,0.0,0.06,0.0,0.0,0.0,3.5</t>
+  </si>
+  <si>
+    <t>17.0,5.94,0.39,0.32,1.25,0.0,15.32,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.06,0.24,0.0,0.0,0.06,0.0,0.0,0.0,0.0,6.17,20.0,6.6,0.46,0.32,1.47,1.0,19.76,0.0,0.05,1.0,0,0,0.0,0.05,0.0,0.25,0.05,0.15,0.0,0.0,0.0,0.05,0.0,0.0,0.0,3.4</t>
+  </si>
+  <si>
+    <t>22.5,6.09,1.04,0.63,1.65,1.0,17.9,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.33,0.11,0.13,0.13,0.13,0.02,0.0,0.0,0.0,0.0,3.28,9.0,6.5,0.42,0.63,0.66,0.0,18.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.28,0.22,0.17,0.0,0.0,0.0,0.06,0.0,0.0,0.0,3.5</t>
+  </si>
+  <si>
+    <t>19.0,5.26,0.88,0.63,1.4,0.0,13.43,1.0,0.0,1.0,2,0,0.0,0.03,0.0,0.26,0.08,0.11,0.03,0.03,0.03,0.05,0.0,0.0,0.0,2.14,22.5,6.09,1.04,0.63,1.65,1.0,17.9,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.33,0.11,0.13,0.13,0.13,0.02,0.0,0.0,0.0,0.0,3.28</t>
+  </si>
+  <si>
+    <t>18.33,5.42,1.28,0.95,1.35,0.67,13.7,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.22,0.18,0.11,0.09,0.09,0.05,0.02,0.0,0.0,0.0,2.94,17.0,5.94,0.39,0.32,1.25,0.0,15.32,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.06,0.24,0.0,0.0,0.06,0.0,0.0,0.0,0.0,6.17</t>
+  </si>
+  <si>
+    <t>5.0,4.2,0.35,0.95,0.37,0.0,0.12,0.0,0.07,2.33,0,0,0.0,0.13,0.0,0.27,0.07,0.33,0.07,0.07,0.27,0.0,0.0,0.0,0.0,2.25,11.33,5.5,1.58,1.89,0.83,0.17,13.06,0.0,0.04,1.0,1,0,0.0,0.04,0.0,0.22,0.15,0.19,0.1,0.1,0.03,0.01,0.0,0.0,0.0,2.36</t>
+  </si>
+  <si>
+    <t>15.75,5.08,1.46,1.26,1.16,0.25,9.79,1.0,0.03,1.75,0,0,0.0,0.05,0.0,0.17,0.14,0.19,0.08,0.08,0.05,0.0,0.0,0.0,0.0,2.89,13.2,5.82,1.53,1.58,0.97,0.0,15.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.14,0.18,0.09,0.09,0.06,0.0,0.0,0.5,0.5,2.47</t>
   </si>
   <si>
     <t>to be the same?</t>
   </si>
   <si>
-    <t>248,0.25,13.18,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.2,0.25,0.0,0.0,200,0.0,13.43,1.0,0.0,1.0,0.0,0.03,0.0,0.15,0.05,0.0,0.08,0.0</t>
-  </si>
-  <si>
-    <t>63,0.0,0.12,0.0,0.07,2.33,0.0,0.13,0.0,0.1,0.1,0.1,0.0,0.0,507,0.11,12.05,0.0,0.01,1.22,0.0,0.02,0.0,0.2,0.2,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>317,0.2,13.69,0.0,0.05,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.08,0.25,112,0.0,11.91,0.0,0.0,2.0,0.0,0.05,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>200,0.0,13.43,1.0,0.0,1.0,0.0,0.03,0.0,0.15,0.05,0.0,0.08,0.0,298,0.67,13.7,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>200,0.0,13.43,1.0,0.0,1.0,0.0,0.03,0.0,0.15,0.05,0.0,0.08,0.0,320,0.25,9.79,1.0,0.03,1.75,0.0,0.05,0.0,0.3,0.3,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>190,0.2,11.0,0.0,0.0,1.2,0.0,0.03,0.0,0.05,0.1,0.1,0.0,0.0,507,0.11,12.05,0.0,0.01,1.22,0.0,0.02,0.0,0.2,0.2,0.25,0.0,0.0</t>
+    <t>11.25,5.51,1.04,1.26,0.83,0.25,13.18,0.0,0.0,1.0,3,0,0.0,0.07,0.0,0.24,0.09,0.18,0.09,0.09,0.04,0.0,0.0,0.0,0.0,2.0,19.0,5.26,0.88,0.63,1.4,0.0,13.43,1.0,0.0,1.0,2,0,0.0,0.03,0.0,0.26,0.08,0.11,0.03,0.03,0.03,0.05,0.0,0.0,0.0,2.14</t>
+  </si>
+  <si>
+    <t>5.0,4.2,0.35,0.95,0.37,0.0,0.12,0.0,0.07,2.33,0,0,0.0,0.13,0.0,0.27,0.07,0.33,0.07,0.07,0.27,0.0,0.0,0.0,0.0,2.25,10.44,5.39,2.18,2.84,0.77,0.11,12.05,0.0,0.01,1.22,0,0,0.0,0.02,0.0,0.21,0.06,0.22,0.06,0.06,0.06,0.03,0.13,0.0,0.0,2.35</t>
+  </si>
+  <si>
+    <t>11.4,5.56,1.32,1.58,0.84,0.2,13.69,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.23,0.09,0.21,0.05,0.05,0.11,0.02,0.0,0.25,0.25,2.5,22.0,5.09,0.51,0.32,1.62,0.0,11.91,0.0,0.0,2.0,0,0,0.0,0.05,0.0,0.14,0.14,0.23,0.14,0.14,0.09,0.05,0.13,0.0,0.0,3.0</t>
+  </si>
+  <si>
+    <t>19.0,5.26,0.88,0.63,1.4,0.0,13.43,1.0,0.0,1.0,2,0,0.0,0.03,0.0,0.26,0.08,0.11,0.03,0.03,0.03,0.05,0.0,0.0,0.0,2.14,18.33,5.42,1.28,0.95,1.35,0.67,13.7,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.22,0.18,0.11,0.09,0.09,0.05,0.02,0.0,0.0,0.0,2.94</t>
+  </si>
+  <si>
+    <t>19.0,5.26,0.88,0.63,1.4,0.0,13.43,1.0,0.0,1.0,2,0,0.0,0.03,0.0,0.26,0.08,0.11,0.03,0.03,0.03,0.05,0.0,0.0,0.0,2.14,15.75,5.08,1.46,1.26,1.16,0.25,9.79,1.0,0.03,1.75,0,0,0.0,0.05,0.0,0.17,0.14,0.19,0.08,0.08,0.05,0.0,0.0,0.0,0.0,2.89</t>
+  </si>
+  <si>
+    <t>7.0,5.43,0.81,1.58,0.51,0.2,11.0,0.0,0.0,1.2,2,0,0.0,0.03,0.0,0.14,0.06,0.23,0.11,0.11,0.0,0.06,0.25,0.0,0.0,2.67,10.44,5.39,2.18,2.84,0.77,0.11,12.05,0.0,0.01,1.22,0,0,0.0,0.02,0.0,0.21,0.06,0.22,0.06,0.06,0.06,0.03,0.13,0.0,0.0,2.35</t>
   </si>
   <si>
     <t>ghborhood.</t>
   </si>
   <si>
-    <t>303,0.0,13.03,1.0,0.02,1.25,0.0,0.02,0.0,0.2,0.15,0.1,0.08,0.0,200,0.0,13.43,1.0,0.0,1.0,0.0,0.03,0.0,0.15,0.05,0.0,0.08,0.0</t>
-  </si>
-  <si>
-    <t>200,0.0,13.43,1.0,0.0,1.0,0.0,0.03,0.0,0.15,0.05,0.0,0.08,0.0,374,0.17,13.06,0.0,0.04,1.0,0.0,0.04,0.0,0.25,0.4,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>84,0.5,13.99,0.0,0.07,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,507,0.11,12.05,0.0,0.01,1.22,0.0,0.02,0.0,0.2,0.2,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>121,0.0,8.61,0.0,0.04,1.0,0.0,0.04,0.0,0.1,0.1,0.1,0.08,0.0,200,0.0,13.43,1.0,0.0,1.0,0.0,0.03,0.0,0.15,0.05,0.0,0.08,0.0</t>
-  </si>
-  <si>
-    <t>146,0.0,9.6,0.0,0.03,1.0,0.0,0.1,0.0,0.15,0.25,0.25,0.0,0.0,338,0.25,12.59,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>338,0.25,12.59,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0,219,0.33,12.23,0.0,0.03,5.67,0.0,0.03,0.0,0.05,0.2,0.2,0.17,0.25</t>
-  </si>
-  <si>
-    <t>338,0.25,12.59,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0,63,0.0,0.12,0.0,0.07,2.33,0.0,0.13,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>112,0.0,11.91,0.0,0.0,2.0,0.0,0.05,0.0,0.1,0.2,0.2,0.0,0.0,200,0.0,13.43,1.0,0.0,1.0,0.0,0.03,0.0,0.15,0.05,0.0,0.08,0.0</t>
-  </si>
-  <si>
-    <t>338,0.25,12.59,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0,101,0.0,15.32,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>84,0.5,13.99,0.0,0.07,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,248,0.25,13.18,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.2,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>507,0.11,12.05,0.0,0.01,1.22,0.0,0.02,0.0,0.2,0.2,0.25,0.0,0.0,101,0.0,15.32,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>274,1.0,17.9,0.0,0.04,1.0,0.0,0.0,0.0,0.2,0.25,0.3,0.0,0.0,338,0.25,12.59,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>320,0.25,9.79,1.0,0.03,1.75,0.0,0.05,0.0,0.3,0.3,0.35,0.0,0.0,117,0.0,14.76,0.0,0.05,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>190,0.2,11.0,0.0,0.0,1.2,0.0,0.03,0.0,0.05,0.1,0.1,0.0,0.0,67,1.0,15.72,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>190,0.2,11.0,0.0,0.0,1.2,0.0,0.03,0.0,0.05,0.1,0.1,0.0,0.0,320,0.25,9.79,1.0,0.03,1.75,0.0,0.05,0.0,0.3,0.3,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>67,1.0,15.72,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,117,0.0,18.15,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>190,0.2,11.0,0.0,0.0,1.2,0.0,0.03,0.0,0.05,0.1,0.1,0.0,0.0,112,0.0,11.91,0.0,0.0,2.0,0.0,0.05,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>507,0.11,12.05,0.0,0.01,1.22,0.0,0.02,0.0,0.2,0.2,0.25,0.0,0.0,117,0.0,14.76,0.0,0.05,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>146,0.0,9.6,0.0,0.03,1.0,0.0,0.1,0.0,0.15,0.25,0.25,0.0,0.0,507,0.11,12.05,0.0,0.01,1.22,0.0,0.02,0.0,0.2,0.2,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>374,0.17,13.06,0.0,0.04,1.0,0.0,0.04,0.0,0.25,0.4,0.3,0.0,0.0,112,0.0,11.91,0.0,0.0,2.0,0.0,0.05,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>190,0.2,11.0,0.0,0.0,1.2,0.0,0.03,0.0,0.05,0.1,0.1,0.0,0.0,101,0.0,15.32,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>121,0.0,8.61,0.0,0.04,1.0,0.0,0.04,0.0,0.1,0.1,0.1,0.08,0.0,117,0.0,14.76,0.0,0.05,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>274,1.0,17.9,0.0,0.04,1.0,0.0,0.0,0.0,0.2,0.25,0.3,0.0,0.0,248,0.25,13.18,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.2,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>248,0.25,13.18,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.2,0.25,0.0,0.0,647,0.2,20.64,0.0,0.05,1.0,0.0,0.04,0.0,0.35,0.55,0.5,0.08,0.0</t>
+    <t>13.75,5.51,1.28,1.26,1.01,0.0,13.03,1.0,0.02,1.25,2,0,0.0,0.02,0.0,0.24,0.11,0.13,0.07,0.07,0.04,0.04,0.0,0.0,0.0,2.9,19.0,5.26,0.88,0.63,1.4,0.0,13.43,1.0,0.0,1.0,2,0,0.0,0.03,0.0,0.26,0.08,0.11,0.03,0.03,0.03,0.05,0.0,0.0,0.0,2.14</t>
+  </si>
+  <si>
+    <t>19.0,5.26,0.88,0.63,1.4,0.0,13.43,1.0,0.0,1.0,2,0,0.0,0.03,0.0,0.26,0.08,0.11,0.03,0.03,0.03,0.05,0.0,0.0,0.0,2.14,11.33,5.5,1.58,1.89,0.83,0.17,13.06,0.0,0.04,1.0,1,0,0.0,0.04,0.0,0.22,0.15,0.19,0.1,0.1,0.03,0.01,0.0,0.0,0.0,2.36</t>
+  </si>
+  <si>
+    <t>7.0,6.0,0.32,0.63,0.51,0.5,13.99,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.36,0.21,0.21,0.0,0.0,0.07,0.0,0.0,0.0,0.0,2.57,10.44,5.39,2.18,2.84,0.77,0.11,12.05,0.0,0.01,1.22,0,0,0.0,0.02,0.0,0.21,0.06,0.22,0.06,0.06,0.06,0.03,0.13,0.0,0.0,2.35</t>
+  </si>
+  <si>
+    <t>13.0,4.65,0.6,0.63,0.96,0.0,8.61,0.0,0.04,1.0,0,0,0.0,0.04,0.0,0.27,0.04,0.31,0.04,0.04,0.08,0.0,0.0,0.0,0.0,2.25,19.0,5.26,0.88,0.63,1.4,0.0,13.43,1.0,0.0,1.0,2,0,0.0,0.03,0.0,0.26,0.08,0.11,0.03,0.03,0.03,0.05,0.0,0.0,0.0,2.14</t>
+  </si>
+  <si>
+    <t>15.5,4.71,0.72,0.63,1.14,0.0,9.6,0.0,0.03,1.0,0,0,0.0,0.1,0.0,0.23,0.1,0.13,0.0,0.0,0.06,0.0,0.0,0.0,0.0,2.18,16.25,5.2,1.51,1.26,1.19,0.25,12.59,0.0,0.0,1.0,0,0,0.0,0.0,12.5,0.23,0.06,0.2,0.06,0.06,0.05,0.0,0.0,0.0,0.0,2.33</t>
+  </si>
+  <si>
+    <t>16.25,5.2,1.51,1.26,1.19,0.25,12.59,0.0,0.0,1.0,0,0,0.0,0.0,12.5,0.23,0.06,0.2,0.06,0.06,0.05,0.0,0.0,0.0,0.0,2.33,13.0,5.62,0.91,0.95,0.96,0.33,12.23,0.0,0.03,5.67,0,0,0.0,0.03,0.0,0.28,0.13,0.15,0.08,0.08,0.03,0.03,0.13,0.25,0.25,2.0</t>
+  </si>
+  <si>
+    <t>16.25,5.2,1.51,1.26,1.19,0.25,12.59,0.0,0.0,1.0,0,0,0.0,0.0,12.5,0.23,0.06,0.2,0.06,0.06,0.05,0.0,0.0,0.0,0.0,2.33,5.0,4.2,0.35,0.95,0.37,0.0,0.12,0.0,0.07,2.33,0,0,0.0,0.13,0.0,0.27,0.07,0.33,0.07,0.07,0.27,0.0,0.0,0.0,0.0,2.25</t>
+  </si>
+  <si>
+    <t>22.0,5.09,0.51,0.32,1.62,0.0,11.91,0.0,0.0,2.0,0,0,0.0,0.05,0.0,0.14,0.14,0.23,0.14,0.14,0.09,0.05,0.13,0.0,0.0,3.0,19.0,5.26,0.88,0.63,1.4,0.0,13.43,1.0,0.0,1.0,2,0,0.0,0.03,0.0,0.26,0.08,0.11,0.03,0.03,0.03,0.05,0.0,0.0,0.0,2.14</t>
+  </si>
+  <si>
+    <t>16.25,5.2,1.51,1.26,1.19,0.25,12.59,0.0,0.0,1.0,0,0,0.0,0.0,12.5,0.23,0.06,0.2,0.06,0.06,0.05,0.0,0.0,0.0,0.0,2.33,17.0,5.94,0.39,0.32,1.25,0.0,15.32,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.06,0.24,0.0,0.0,0.06,0.0,0.0,0.0,0.0,6.17</t>
+  </si>
+  <si>
+    <t>7.0,6.0,0.32,0.63,0.51,0.5,13.99,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.36,0.21,0.21,0.0,0.0,0.07,0.0,0.0,0.0,0.0,2.57,11.25,5.51,1.04,1.26,0.83,0.25,13.18,0.0,0.0,1.0,3,0,0.0,0.07,0.0,0.24,0.09,0.18,0.09,0.09,0.04,0.0,0.0,0.0,0.0,2.0</t>
+  </si>
+  <si>
+    <t>10.44,5.39,2.18,2.84,0.77,0.11,12.05,0.0,0.01,1.22,0,0,0.0,0.02,0.0,0.21,0.06,0.22,0.06,0.06,0.06,0.03,0.13,0.0,0.0,2.35,17.0,5.94,0.39,0.32,1.25,0.0,15.32,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.06,0.24,0.0,0.0,0.06,0.0,0.0,0.0,0.0,6.17</t>
+  </si>
+  <si>
+    <t>22.5,6.09,1.04,0.63,1.65,1.0,17.9,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.33,0.11,0.13,0.13,0.13,0.02,0.0,0.0,0.0,0.0,3.28,16.25,5.2,1.51,1.26,1.19,0.25,12.59,0.0,0.0,1.0,0,0,0.0,0.0,12.5,0.23,0.06,0.2,0.06,0.06,0.05,0.0,0.0,0.0,0.0,2.33</t>
+  </si>
+  <si>
+    <t>15.75,5.08,1.46,1.26,1.16,0.25,9.79,1.0,0.03,1.75,0,0,0.0,0.05,0.0,0.17,0.14,0.19,0.08,0.08,0.05,0.0,0.0,0.0,0.0,2.89,10.0,5.85,0.46,0.63,0.74,0.0,14.76,0.0,0.05,1.0,1,0,0.0,0.0,0.0,0.2,0.1,0.15,0.1,0.1,0.05,0.0,0.0,0.0,0.0,1.29</t>
+  </si>
+  <si>
+    <t>7.0,5.43,0.81,1.58,0.51,0.2,11.0,0.0,0.0,1.2,2,0,0.0,0.03,0.0,0.14,0.06,0.23,0.11,0.11,0.0,0.06,0.25,0.0,0.0,2.67,11.0,6.09,0.26,0.32,0.81,1.0,15.72,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.18,0.09,0.09,0.09,0.09,0.0,0.0,0.0,0.0,6.25</t>
+  </si>
+  <si>
+    <t>7.0,5.43,0.81,1.58,0.51,0.2,11.0,0.0,0.0,1.2,2,0,0.0,0.03,0.0,0.14,0.06,0.23,0.11,0.11,0.0,0.06,0.25,0.0,0.0,2.67,15.75,5.08,1.46,1.26,1.16,0.25,9.79,1.0,0.03,1.75,0,0,0.0,0.05,0.0,0.17,0.14,0.19,0.08,0.08,0.05,0.0,0.0,0.0,0.0,2.89</t>
+  </si>
+  <si>
+    <t>11.0,6.09,0.26,0.32,0.81,1.0,15.72,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.18,0.09,0.09,0.09,0.09,0.0,0.0,0.0,0.0,6.25,9.0,6.5,0.42,0.63,0.66,0.0,18.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.28,0.22,0.17,0.0,0.0,0.0,0.06,0.0,0.0,0.0,3.5</t>
+  </si>
+  <si>
+    <t>7.0,5.43,0.81,1.58,0.51,0.2,11.0,0.0,0.0,1.2,2,0,0.0,0.03,0.0,0.14,0.06,0.23,0.11,0.11,0.0,0.06,0.25,0.0,0.0,2.67,22.0,5.09,0.51,0.32,1.62,0.0,11.91,0.0,0.0,2.0,0,0,0.0,0.05,0.0,0.14,0.14,0.23,0.14,0.14,0.09,0.05,0.13,0.0,0.0,3.0</t>
+  </si>
+  <si>
+    <t>10.44,5.39,2.18,2.84,0.77,0.11,12.05,0.0,0.01,1.22,0,0,0.0,0.02,0.0,0.21,0.06,0.22,0.06,0.06,0.06,0.03,0.13,0.0,0.0,2.35,10.0,5.85,0.46,0.63,0.74,0.0,14.76,0.0,0.05,1.0,1,0,0.0,0.0,0.0,0.2,0.1,0.15,0.1,0.1,0.05,0.0,0.0,0.0,0.0,1.29</t>
+  </si>
+  <si>
+    <t>15.5,4.71,0.72,0.63,1.14,0.0,9.6,0.0,0.03,1.0,0,0,0.0,0.1,0.0,0.23,0.1,0.13,0.0,0.0,0.06,0.0,0.0,0.0,0.0,2.18,10.44,5.39,2.18,2.84,0.77,0.11,12.05,0.0,0.01,1.22,0,0,0.0,0.02,0.0,0.21,0.06,0.22,0.06,0.06,0.06,0.03,0.13,0.0,0.0,2.35</t>
+  </si>
+  <si>
+    <t>11.33,5.5,1.58,1.89,0.83,0.17,13.06,0.0,0.04,1.0,1,0,0.0,0.04,0.0,0.22,0.15,0.19,0.1,0.1,0.03,0.01,0.0,0.0,0.0,2.36,22.0,5.09,0.51,0.32,1.62,0.0,11.91,0.0,0.0,2.0,0,0,0.0,0.05,0.0,0.14,0.14,0.23,0.14,0.14,0.09,0.05,0.13,0.0,0.0,3.0</t>
+  </si>
+  <si>
+    <t>7.0,5.43,0.81,1.58,0.51,0.2,11.0,0.0,0.0,1.2,2,0,0.0,0.03,0.0,0.14,0.06,0.23,0.11,0.11,0.0,0.06,0.25,0.0,0.0,2.67,17.0,5.94,0.39,0.32,1.25,0.0,15.32,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.06,0.24,0.0,0.0,0.06,0.0,0.0,0.0,0.0,6.17</t>
+  </si>
+  <si>
+    <t>13.0,4.65,0.6,0.63,0.96,0.0,8.61,0.0,0.04,1.0,0,0,0.0,0.04,0.0,0.27,0.04,0.31,0.04,0.04,0.08,0.0,0.0,0.0,0.0,2.25,10.0,5.85,0.46,0.63,0.74,0.0,14.76,0.0,0.05,1.0,1,0,0.0,0.0,0.0,0.2,0.1,0.15,0.1,0.1,0.05,0.0,0.0,0.0,0.0,1.29</t>
+  </si>
+  <si>
+    <t>22.5,6.09,1.04,0.63,1.65,1.0,17.9,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.33,0.11,0.13,0.13,0.13,0.02,0.0,0.0,0.0,0.0,3.28,11.25,5.51,1.04,1.26,0.83,0.25,13.18,0.0,0.0,1.0,3,0,0.0,0.07,0.0,0.24,0.09,0.18,0.09,0.09,0.04,0.0,0.0,0.0,0.0,2.0</t>
+  </si>
+  <si>
+    <t>11.25,5.51,1.04,1.26,0.83,0.25,13.18,0.0,0.0,1.0,3,0,0.0,0.07,0.0,0.24,0.09,0.18,0.09,0.09,0.04,0.0,0.0,0.0,0.0,2.0,18.6,6.96,2.16,1.58,1.37,0.2,20.64,0.0,0.05,1.0,0,0,0.0,0.04,25.0,0.3,0.14,0.22,0.06,0.06,0.05,0.03,0.38,0.0,0.0,2.09</t>
   </si>
   <si>
     <t>watching sports documentaries</t>
@@ -885,7 +885,7 @@
     <t>s public education is reformed, health classes can teach children what they need to know about fitness and nutrition, because PE classes are severely lacking.</t>
   </si>
   <si>
-    <t>440,0.67,12.74,0.0,0.01,1.33,0.0,0.07,0.0,0.15,0.5,0.55,0.0,0.0,338,0.25,12.59,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0</t>
+    <t>29.0,5.06,2.02,0.95,2.13,0.67,12.74,0.0,0.01,1.33,5,0,0.0,0.07,0.0,0.16,0.1,0.25,0.09,0.09,0.05,0.0,0.0,0.0,0.0,3.36,16.25,5.2,1.51,1.26,1.19,0.25,12.59,0.0,0.0,1.0,0,0,0.0,0.0,12.5,0.23,0.06,0.2,0.06,0.06,0.05,0.0,0.0,0.0,0.0,2.33</t>
   </si>
   <si>
     <t>have that class time to use it</t>
@@ -915,34 +915,34 @@
     <t>ass that is just there.</t>
   </si>
   <si>
-    <t>117,0.0,18.15,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,117,0.0,14.76,0.0,0.05,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>117,0.0,14.76,0.0,0.05,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,63,0.0,0.12,0.0,0.07,2.33,0.0,0.13,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>121,0.0,8.61,0.0,0.04,1.0,0.0,0.04,0.0,0.1,0.1,0.1,0.08,0.0,320,0.25,9.79,1.0,0.03,1.75,0.0,0.05,0.0,0.3,0.3,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>320,0.25,9.79,1.0,0.03,1.75,0.0,0.05,0.0,0.3,0.3,0.35,0.0,0.0,374,0.17,13.06,0.0,0.04,1.0,0.0,0.04,0.0,0.25,0.4,0.3,0.0,0.0</t>
+    <t>9.0,6.5,0.42,0.63,0.66,0.0,18.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.28,0.22,0.17,0.0,0.0,0.0,0.06,0.0,0.0,0.0,3.5,10.0,5.85,0.46,0.63,0.74,0.0,14.76,0.0,0.05,1.0,1,0,0.0,0.0,0.0,0.2,0.1,0.15,0.1,0.1,0.05,0.0,0.0,0.0,0.0,1.29</t>
+  </si>
+  <si>
+    <t>10.0,5.85,0.46,0.63,0.74,0.0,14.76,0.0,0.05,1.0,1,0,0.0,0.0,0.0,0.2,0.1,0.15,0.1,0.1,0.05,0.0,0.0,0.0,0.0,1.29,5.0,4.2,0.35,0.95,0.37,0.0,0.12,0.0,0.07,2.33,0,0,0.0,0.13,0.0,0.27,0.07,0.33,0.07,0.07,0.27,0.0,0.0,0.0,0.0,2.25</t>
+  </si>
+  <si>
+    <t>13.0,4.65,0.6,0.63,0.96,0.0,8.61,0.0,0.04,1.0,0,0,0.0,0.04,0.0,0.27,0.04,0.31,0.04,0.04,0.08,0.0,0.0,0.0,0.0,2.25,15.75,5.08,1.46,1.26,1.16,0.25,9.79,1.0,0.03,1.75,0,0,0.0,0.05,0.0,0.17,0.14,0.19,0.08,0.08,0.05,0.0,0.0,0.0,0.0,2.89</t>
+  </si>
+  <si>
+    <t>15.75,5.08,1.46,1.26,1.16,0.25,9.79,1.0,0.03,1.75,0,0,0.0,0.05,0.0,0.17,0.14,0.19,0.08,0.08,0.05,0.0,0.0,0.0,0.0,2.89,11.33,5.5,1.58,1.89,0.83,0.17,13.06,0.0,0.04,1.0,1,0,0.0,0.04,0.0,0.22,0.15,0.19,0.1,0.1,0.03,0.01,0.0,0.0,0.0,2.36</t>
   </si>
   <si>
     <t>All.</t>
   </si>
   <si>
-    <t>219,0.33,12.23,0.0,0.03,5.67,0.0,0.03,0.0,0.05,0.2,0.2,0.17,0.25,440,0.67,12.74,0.0,0.01,1.33,0.0,0.07,0.0,0.15,0.5,0.55,0.0,0.0</t>
-  </si>
-  <si>
-    <t>132,1.0,19.76,0.0,0.05,1.0,0.0,0.05,0.0,0.15,0.15,0.15,0.33,0.0,112,0.0,11.91,0.0,0.0,2.0,0.0,0.05,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>112,0.0,11.91,0.0,0.0,2.0,0.0,0.05,0.0,0.1,0.2,0.2,0.0,0.0,121,0.0,8.61,0.0,0.04,1.0,0.0,0.04,0.0,0.1,0.1,0.1,0.08,0.0</t>
-  </si>
-  <si>
-    <t>112,0.0,11.91,0.0,0.0,2.0,0.0,0.05,0.0,0.1,0.2,0.2,0.0,0.0,320,0.25,9.79,1.0,0.03,1.75,0.0,0.05,0.0,0.3,0.3,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>303,0.0,13.03,1.0,0.02,1.25,0.0,0.02,0.0,0.2,0.15,0.1,0.08,0.0,507,0.11,12.05,0.0,0.01,1.22,0.0,0.02,0.0,0.2,0.2,0.25,0.0,0.0</t>
+    <t>13.0,5.62,0.91,0.95,0.96,0.33,12.23,0.0,0.03,5.67,0,0,0.0,0.03,0.0,0.28,0.13,0.15,0.08,0.08,0.03,0.03,0.13,0.25,0.25,2.0,29.0,5.06,2.02,0.95,2.13,0.67,12.74,0.0,0.01,1.33,5,0,0.0,0.07,0.0,0.16,0.1,0.25,0.09,0.09,0.05,0.0,0.0,0.0,0.0,3.36</t>
+  </si>
+  <si>
+    <t>20.0,6.6,0.46,0.32,1.47,1.0,19.76,0.0,0.05,1.0,0,0,0.0,0.05,0.0,0.25,0.05,0.15,0.0,0.0,0.0,0.05,0.0,0.0,0.0,3.4,22.0,5.09,0.51,0.32,1.62,0.0,11.91,0.0,0.0,2.0,0,0,0.0,0.05,0.0,0.14,0.14,0.23,0.14,0.14,0.09,0.05,0.13,0.0,0.0,3.0</t>
+  </si>
+  <si>
+    <t>22.0,5.09,0.51,0.32,1.62,0.0,11.91,0.0,0.0,2.0,0,0,0.0,0.05,0.0,0.14,0.14,0.23,0.14,0.14,0.09,0.05,0.13,0.0,0.0,3.0,13.0,4.65,0.6,0.63,0.96,0.0,8.61,0.0,0.04,1.0,0,0,0.0,0.04,0.0,0.27,0.04,0.31,0.04,0.04,0.08,0.0,0.0,0.0,0.0,2.25</t>
+  </si>
+  <si>
+    <t>22.0,5.09,0.51,0.32,1.62,0.0,11.91,0.0,0.0,2.0,0,0,0.0,0.05,0.0,0.14,0.14,0.23,0.14,0.14,0.09,0.05,0.13,0.0,0.0,3.0,15.75,5.08,1.46,1.26,1.16,0.25,9.79,1.0,0.03,1.75,0,0,0.0,0.05,0.0,0.17,0.14,0.19,0.08,0.08,0.05,0.0,0.0,0.0,0.0,2.89</t>
+  </si>
+  <si>
+    <t>13.75,5.51,1.28,1.26,1.01,0.0,13.03,1.0,0.02,1.25,2,0,0.0,0.02,0.0,0.24,0.11,0.13,0.07,0.07,0.04,0.04,0.0,0.0,0.0,2.9,10.44,5.39,2.18,2.84,0.77,0.11,12.05,0.0,0.01,1.22,0,0,0.0,0.02,0.0,0.21,0.06,0.22,0.06,0.06,0.06,0.03,0.13,0.0,0.0,2.35</t>
   </si>
   <si>
     <t>if students do need exercise, t</t>
@@ -978,25 +978,25 @@
     <t>. i goes hiking and plays basketball in my neighborhood.</t>
   </si>
   <si>
-    <t>320,0.25,9.79,1.0,0.03,1.75,0.0,0.05,0.0,0.3,0.3,0.35,0.0,0.0,248,0.25,13.18,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.2,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>338,0.25,12.59,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0,117,0.0,18.15,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>317,0.2,13.69,0.0,0.05,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.08,0.25,121,0.0,8.61,0.0,0.04,1.0,0.0,0.04,0.0,0.1,0.1,0.1,0.08,0.0</t>
-  </si>
-  <si>
-    <t>303,0.0,13.03,1.0,0.02,1.25,0.0,0.02,0.0,0.2,0.15,0.1,0.08,0.0,219,0.33,12.23,0.0,0.03,5.67,0.0,0.03,0.0,0.05,0.2,0.2,0.17,0.25</t>
-  </si>
-  <si>
-    <t>67,1.0,15.72,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,200,0.0,13.43,1.0,0.0,1.0,0.0,0.03,0.0,0.15,0.05,0.0,0.08,0.0</t>
-  </si>
-  <si>
-    <t>303,0.0,13.03,1.0,0.02,1.25,0.0,0.02,0.0,0.2,0.15,0.1,0.08,0.0,338,0.25,12.59,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>146,0.0,9.6,0.0,0.03,1.0,0.0,0.1,0.0,0.15,0.25,0.25,0.0,0.0,647,0.2,20.64,0.0,0.05,1.0,0.0,0.04,0.0,0.35,0.55,0.5,0.08,0.0</t>
+    <t>15.75,5.08,1.46,1.26,1.16,0.25,9.79,1.0,0.03,1.75,0,0,0.0,0.05,0.0,0.17,0.14,0.19,0.08,0.08,0.05,0.0,0.0,0.0,0.0,2.89,11.25,5.51,1.04,1.26,0.83,0.25,13.18,0.0,0.0,1.0,3,0,0.0,0.07,0.0,0.24,0.09,0.18,0.09,0.09,0.04,0.0,0.0,0.0,0.0,2.0</t>
+  </si>
+  <si>
+    <t>16.25,5.2,1.51,1.26,1.19,0.25,12.59,0.0,0.0,1.0,0,0,0.0,0.0,12.5,0.23,0.06,0.2,0.06,0.06,0.05,0.0,0.0,0.0,0.0,2.33,9.0,6.5,0.42,0.63,0.66,0.0,18.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.28,0.22,0.17,0.0,0.0,0.0,0.06,0.0,0.0,0.0,3.5</t>
+  </si>
+  <si>
+    <t>11.4,5.56,1.32,1.58,0.84,0.2,13.69,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.23,0.09,0.21,0.05,0.05,0.11,0.02,0.0,0.25,0.25,2.5,13.0,4.65,0.6,0.63,0.96,0.0,8.61,0.0,0.04,1.0,0,0,0.0,0.04,0.0,0.27,0.04,0.31,0.04,0.04,0.08,0.0,0.0,0.0,0.0,2.25</t>
+  </si>
+  <si>
+    <t>13.75,5.51,1.28,1.26,1.01,0.0,13.03,1.0,0.02,1.25,2,0,0.0,0.02,0.0,0.24,0.11,0.13,0.07,0.07,0.04,0.04,0.0,0.0,0.0,2.9,13.0,5.62,0.91,0.95,0.96,0.33,12.23,0.0,0.03,5.67,0,0,0.0,0.03,0.0,0.28,0.13,0.15,0.08,0.08,0.03,0.03,0.13,0.25,0.25,2.0</t>
+  </si>
+  <si>
+    <t>11.0,6.09,0.26,0.32,0.81,1.0,15.72,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.18,0.09,0.09,0.09,0.09,0.0,0.0,0.0,0.0,6.25,19.0,5.26,0.88,0.63,1.4,0.0,13.43,1.0,0.0,1.0,2,0,0.0,0.03,0.0,0.26,0.08,0.11,0.03,0.03,0.03,0.05,0.0,0.0,0.0,2.14</t>
+  </si>
+  <si>
+    <t>13.75,5.51,1.28,1.26,1.01,0.0,13.03,1.0,0.02,1.25,2,0,0.0,0.02,0.0,0.24,0.11,0.13,0.07,0.07,0.04,0.04,0.0,0.0,0.0,2.9,16.25,5.2,1.51,1.26,1.19,0.25,12.59,0.0,0.0,1.0,0,0,0.0,0.0,12.5,0.23,0.06,0.2,0.06,0.06,0.05,0.0,0.0,0.0,0.0,2.33</t>
+  </si>
+  <si>
+    <t>15.5,4.71,0.72,0.63,1.14,0.0,9.6,0.0,0.03,1.0,0,0,0.0,0.1,0.0,0.23,0.1,0.13,0.0,0.0,0.06,0.0,0.0,0.0,0.0,2.18,18.6,6.96,2.16,1.58,1.37,0.2,20.64,0.0,0.05,1.0,0,0,0.0,0.04,25.0,0.3,0.14,0.22,0.06,0.06,0.05,0.03,0.38,0.0,0.0,2.09</t>
   </si>
   <si>
     <t>classes can teach children wha</t>
@@ -1032,10 +1032,10 @@
     <t>nd nutrition, because PE classes are severely lacking.</t>
   </si>
   <si>
-    <t>101,0.0,15.32,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,374,0.17,13.06,0.0,0.04,1.0,0.0,0.04,0.0,0.25,0.4,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>647,0.2,20.64,0.0,0.05,1.0,0.0,0.04,0.0,0.35,0.55,0.5,0.08,0.0,374,0.17,13.06,0.0,0.04,1.0,0.0,0.04,0.0,0.25,0.4,0.3,0.0,0.0</t>
+    <t>17.0,5.94,0.39,0.32,1.25,0.0,15.32,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.06,0.24,0.0,0.0,0.06,0.0,0.0,0.0,0.0,6.17,11.33,5.5,1.58,1.89,0.83,0.17,13.06,0.0,0.04,1.0,1,0,0.0,0.04,0.0,0.22,0.15,0.19,0.1,0.1,0.03,0.01,0.0,0.0,0.0,2.36</t>
+  </si>
+  <si>
+    <t>18.6,6.96,2.16,1.58,1.37,0.2,20.64,0.0,0.05,1.0,0,0,0.0,0.04,25.0,0.3,0.14,0.22,0.06,0.06,0.05,0.03,0.38,0.0,0.0,2.09,11.33,5.5,1.58,1.89,0.83,0.17,13.06,0.0,0.04,1.0,1,0,0.0,0.04,0.0,0.22,0.15,0.19,0.1,0.1,0.03,0.01,0.0,0.0,0.0,2.36</t>
   </si>
   <si>
     <t>es should still be in high scho</t>
@@ -1068,10 +1068,10 @@
     <t>cially not all 4 years of HS). maybe just having PE be an optional class and having one year be a mandatory thing instead of a continuous PE class. in lower grades, yes it should be mandatory because little kids are more likely to gain and lose weight in weird patterns. That Is All.</t>
   </si>
   <si>
-    <t>84,0.5,13.99,0.0,0.07,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,146,0.0,9.6,0.0,0.03,1.0,0.0,0.1,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>384,0.0,15.37,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.17,0.5,647,0.2,20.64,0.0,0.05,1.0,0.0,0.04,0.0,0.35,0.55,0.5,0.08,0.0</t>
+    <t>7.0,6.0,0.32,0.63,0.51,0.5,13.99,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.36,0.21,0.21,0.0,0.0,0.07,0.0,0.0,0.0,0.0,2.57,15.5,4.71,0.72,0.63,1.14,0.0,9.6,0.0,0.03,1.0,0,0,0.0,0.1,0.0,0.23,0.1,0.13,0.0,0.0,0.06,0.0,0.0,0.0,0.0,2.18</t>
+  </si>
+  <si>
+    <t>13.2,5.82,1.53,1.58,0.97,0.0,15.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.14,0.18,0.09,0.09,0.06,0.0,0.0,0.5,0.5,2.47,18.6,6.96,2.16,1.58,1.37,0.2,20.64,0.0,0.05,1.0,0,0,0.0,0.04,25.0,0.3,0.14,0.22,0.06,0.06,0.05,0.03,0.38,0.0,0.0,2.09</t>
   </si>
   <si>
     <t>all, yearly physical fitness te</t>
@@ -1110,10 +1110,10 @@
     <t>bouncing on fitness balls, and, most recently at my arts high school, watching sports documentaries and playing Wii Sports. &lt;br/&gt; Unless public education is reformed, health classes can teach children what they need to know about fitness and nutrition, because PE classes are severely lacking.</t>
   </si>
   <si>
-    <t>132,1.0,19.76,0.0,0.05,1.0,0.0,0.05,0.0,0.15,0.15,0.15,0.33,0.0,146,0.0,9.6,0.0,0.03,1.0,0.0,0.1,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>219,0.33,12.23,0.0,0.03,5.67,0.0,0.03,0.0,0.05,0.2,0.2,0.17,0.25,647,0.2,20.64,0.0,0.05,1.0,0.0,0.04,0.0,0.35,0.55,0.5,0.08,0.0</t>
+    <t>20.0,6.6,0.46,0.32,1.47,1.0,19.76,0.0,0.05,1.0,0,0,0.0,0.05,0.0,0.25,0.05,0.15,0.0,0.0,0.0,0.05,0.0,0.0,0.0,3.4,15.5,4.71,0.72,0.63,1.14,0.0,9.6,0.0,0.03,1.0,0,0,0.0,0.1,0.0,0.23,0.1,0.13,0.0,0.0,0.06,0.0,0.0,0.0,0.0,2.18</t>
+  </si>
+  <si>
+    <t>13.0,5.62,0.91,0.95,0.96,0.33,12.23,0.0,0.03,5.67,0,0,0.0,0.03,0.0,0.28,0.13,0.15,0.08,0.08,0.03,0.03,0.13,0.25,0.25,2.0,18.6,6.96,2.16,1.58,1.37,0.2,20.64,0.0,0.05,1.0,0,0,0.0,0.04,25.0,0.3,0.14,0.22,0.06,0.06,0.05,0.03,0.38,0.0,0.0,2.09</t>
   </si>
   <si>
     <t>taries and playing Wii Sports.</t>
@@ -1149,19 +1149,19 @@
     <t>formed, health classes can teach children what they need to know about fitness and nutrition, because PE classes are severely lacking.</t>
   </si>
   <si>
-    <t>317,0.2,13.69,0.0,0.05,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.08,0.25,84,0.5,13.99,0.0,0.07,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>338,0.25,12.59,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0,374,0.17,13.06,0.0,0.04,1.0,0.0,0.04,0.0,0.25,0.4,0.3,0.0,0.0</t>
+    <t>11.4,5.56,1.32,1.58,0.84,0.2,13.69,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.23,0.09,0.21,0.05,0.05,0.11,0.02,0.0,0.25,0.25,2.5,7.0,6.0,0.32,0.63,0.51,0.5,13.99,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.36,0.21,0.21,0.0,0.0,0.07,0.0,0.0,0.0,0.0,2.57</t>
+  </si>
+  <si>
+    <t>16.25,5.2,1.51,1.26,1.19,0.25,12.59,0.0,0.0,1.0,0,0,0.0,0.0,12.5,0.23,0.06,0.2,0.06,0.06,0.05,0.0,0.0,0.0,0.0,2.33,11.33,5.5,1.58,1.89,0.83,0.17,13.06,0.0,0.04,1.0,1,0,0.0,0.04,0.0,0.22,0.15,0.19,0.1,0.1,0.03,0.01,0.0,0.0,0.0,2.36</t>
   </si>
   <si>
     <t>weird patterns. That Is All.</t>
   </si>
   <si>
-    <t>84,0.5,13.99,0.0,0.07,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,117,0.0,14.76,0.0,0.05,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>507,0.11,12.05,0.0,0.01,1.22,0.0,0.02,0.0,0.2,0.2,0.25,0.0,0.0,274,1.0,17.9,0.0,0.04,1.0,0.0,0.0,0.0,0.2,0.25,0.3,0.0,0.0</t>
+    <t>7.0,6.0,0.32,0.63,0.51,0.5,13.99,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.36,0.21,0.21,0.0,0.0,0.07,0.0,0.0,0.0,0.0,2.57,10.0,5.85,0.46,0.63,0.74,0.0,14.76,0.0,0.05,1.0,1,0,0.0,0.0,0.0,0.2,0.1,0.15,0.1,0.1,0.05,0.0,0.0,0.0,0.0,1.29</t>
+  </si>
+  <si>
+    <t>10.44,5.39,2.18,2.84,0.77,0.11,12.05,0.0,0.01,1.22,0,0,0.0,0.02,0.0,0.21,0.06,0.22,0.06,0.06,0.06,0.03,0.13,0.0,0.0,2.35,22.5,6.09,1.04,0.63,1.65,1.0,17.9,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.33,0.11,0.13,0.13,0.13,0.02,0.0,0.0,0.0,0.0,3.28</t>
   </si>
   <si>
     <t>failure, improved physical fit</t>
@@ -1194,28 +1194,28 @@
     <t>ine, and also stress reduction.</t>
   </si>
   <si>
-    <t>84,0.5,13.99,0.0,0.07,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,374,0.17,13.06,0.0,0.04,1.0,0.0,0.04,0.0,0.25,0.4,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>219,0.33,12.23,0.0,0.03,5.67,0.0,0.03,0.0,0.05,0.2,0.2,0.17,0.25,190,0.2,11.0,0.0,0.0,1.2,0.0,0.03,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>274,1.0,17.9,0.0,0.04,1.0,0.0,0.0,0.0,0.2,0.25,0.3,0.0,0.0,219,0.33,12.23,0.0,0.03,5.67,0.0,0.03,0.0,0.05,0.2,0.2,0.17,0.25</t>
-  </si>
-  <si>
-    <t>67,1.0,15.72,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,101,0.0,15.32,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>112,0.0,11.91,0.0,0.0,2.0,0.0,0.05,0.0,0.1,0.2,0.2,0.0,0.0,101,0.0,15.32,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>84,0.5,13.99,0.0,0.07,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,338,0.25,12.59,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>121,0.0,8.61,0.0,0.04,1.0,0.0,0.04,0.0,0.1,0.1,0.1,0.08,0.0,84,0.5,13.99,0.0,0.07,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>298,0.67,13.7,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.2,0.2,0.0,0.0,440,0.67,12.74,0.0,0.01,1.33,0.0,0.07,0.0,0.15,0.5,0.55,0.0,0.0</t>
+    <t>7.0,6.0,0.32,0.63,0.51,0.5,13.99,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.36,0.21,0.21,0.0,0.0,0.07,0.0,0.0,0.0,0.0,2.57,11.33,5.5,1.58,1.89,0.83,0.17,13.06,0.0,0.04,1.0,1,0,0.0,0.04,0.0,0.22,0.15,0.19,0.1,0.1,0.03,0.01,0.0,0.0,0.0,2.36</t>
+  </si>
+  <si>
+    <t>13.0,5.62,0.91,0.95,0.96,0.33,12.23,0.0,0.03,5.67,0,0,0.0,0.03,0.0,0.28,0.13,0.15,0.08,0.08,0.03,0.03,0.13,0.25,0.25,2.0,7.0,5.43,0.81,1.58,0.51,0.2,11.0,0.0,0.0,1.2,2,0,0.0,0.03,0.0,0.14,0.06,0.23,0.11,0.11,0.0,0.06,0.25,0.0,0.0,2.67</t>
+  </si>
+  <si>
+    <t>22.5,6.09,1.04,0.63,1.65,1.0,17.9,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.33,0.11,0.13,0.13,0.13,0.02,0.0,0.0,0.0,0.0,3.28,13.0,5.62,0.91,0.95,0.96,0.33,12.23,0.0,0.03,5.67,0,0,0.0,0.03,0.0,0.28,0.13,0.15,0.08,0.08,0.03,0.03,0.13,0.25,0.25,2.0</t>
+  </si>
+  <si>
+    <t>11.0,6.09,0.26,0.32,0.81,1.0,15.72,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.18,0.09,0.09,0.09,0.09,0.0,0.0,0.0,0.0,6.25,17.0,5.94,0.39,0.32,1.25,0.0,15.32,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.06,0.24,0.0,0.0,0.06,0.0,0.0,0.0,0.0,6.17</t>
+  </si>
+  <si>
+    <t>22.0,5.09,0.51,0.32,1.62,0.0,11.91,0.0,0.0,2.0,0,0,0.0,0.05,0.0,0.14,0.14,0.23,0.14,0.14,0.09,0.05,0.13,0.0,0.0,3.0,17.0,5.94,0.39,0.32,1.25,0.0,15.32,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.06,0.24,0.0,0.0,0.06,0.0,0.0,0.0,0.0,6.17</t>
+  </si>
+  <si>
+    <t>7.0,6.0,0.32,0.63,0.51,0.5,13.99,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.36,0.21,0.21,0.0,0.0,0.07,0.0,0.0,0.0,0.0,2.57,16.25,5.2,1.51,1.26,1.19,0.25,12.59,0.0,0.0,1.0,0,0,0.0,0.0,12.5,0.23,0.06,0.2,0.06,0.06,0.05,0.0,0.0,0.0,0.0,2.33</t>
+  </si>
+  <si>
+    <t>13.0,4.65,0.6,0.63,0.96,0.0,8.61,0.0,0.04,1.0,0,0,0.0,0.04,0.0,0.27,0.04,0.31,0.04,0.04,0.08,0.0,0.0,0.0,0.0,2.25,7.0,6.0,0.32,0.63,0.51,0.5,13.99,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.36,0.21,0.21,0.0,0.0,0.07,0.0,0.0,0.0,0.0,2.57</t>
+  </si>
+  <si>
+    <t>18.33,5.42,1.28,0.95,1.35,0.67,13.7,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.22,0.18,0.11,0.09,0.09,0.05,0.02,0.0,0.0,0.0,2.94,29.0,5.06,2.02,0.95,2.13,0.67,12.74,0.0,0.01,1.33,5,0,0.0,0.07,0.0,0.16,0.1,0.25,0.09,0.09,0.05,0.0,0.0,0.0,0.0,3.36</t>
   </si>
   <si>
     <t>not feel bad if they can't run</t>
@@ -1233,10 +1233,10 @@
     <t>ups</t>
   </si>
   <si>
-    <t>117,0.0,18.15,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,101,0.0,15.32,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>320,0.25,9.79,1.0,0.03,1.75,0.0,0.05,0.0,0.3,0.3,0.35,0.0,0.0,440,0.67,12.74,0.0,0.01,1.33,0.0,0.07,0.0,0.15,0.5,0.55,0.0,0.0</t>
+    <t>9.0,6.5,0.42,0.63,0.66,0.0,18.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.28,0.22,0.17,0.0,0.0,0.0,0.06,0.0,0.0,0.0,3.5,17.0,5.94,0.39,0.32,1.25,0.0,15.32,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.06,0.24,0.0,0.0,0.06,0.0,0.0,0.0,0.0,6.17</t>
+  </si>
+  <si>
+    <t>15.75,5.08,1.46,1.26,1.16,0.25,9.79,1.0,0.03,1.75,0,0,0.0,0.05,0.0,0.17,0.14,0.19,0.08,0.08,0.05,0.0,0.0,0.0,0.0,2.89,29.0,5.06,2.02,0.95,2.13,0.67,12.74,0.0,0.01,1.33,5,0,0.0,0.07,0.0,0.16,0.1,0.25,0.09,0.09,0.05,0.0,0.0,0.0,0.0,3.36</t>
   </si>
   <si>
     <t>Students should not feel bad i</t>
@@ -1266,13 +1266,13 @@
     <t>ush</t>
   </si>
   <si>
-    <t>274,1.0,17.9,0.0,0.04,1.0,0.0,0.0,0.0,0.2,0.25,0.3,0.0,0.0,121,0.0,8.61,0.0,0.04,1.0,0.0,0.04,0.0,0.1,0.1,0.1,0.08,0.0</t>
-  </si>
-  <si>
-    <t>248,0.25,13.18,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.2,0.25,0.0,0.0,117,0.0,14.76,0.0,0.05,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>507,0.11,12.05,0.0,0.01,1.22,0.0,0.02,0.0,0.2,0.2,0.25,0.0,0.0,647,0.2,20.64,0.0,0.05,1.0,0.0,0.04,0.0,0.35,0.55,0.5,0.08,0.0</t>
+    <t>22.5,6.09,1.04,0.63,1.65,1.0,17.9,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.33,0.11,0.13,0.13,0.13,0.02,0.0,0.0,0.0,0.0,3.28,13.0,4.65,0.6,0.63,0.96,0.0,8.61,0.0,0.04,1.0,0,0,0.0,0.04,0.0,0.27,0.04,0.31,0.04,0.04,0.08,0.0,0.0,0.0,0.0,2.25</t>
+  </si>
+  <si>
+    <t>11.25,5.51,1.04,1.26,0.83,0.25,13.18,0.0,0.0,1.0,3,0,0.0,0.07,0.0,0.24,0.09,0.18,0.09,0.09,0.04,0.0,0.0,0.0,0.0,2.0,10.0,5.85,0.46,0.63,0.74,0.0,14.76,0.0,0.05,1.0,1,0,0.0,0.0,0.0,0.2,0.1,0.15,0.1,0.1,0.05,0.0,0.0,0.0,0.0,1.29</t>
+  </si>
+  <si>
+    <t>10.44,5.39,2.18,2.84,0.77,0.11,12.05,0.0,0.01,1.22,0,0,0.0,0.02,0.0,0.21,0.06,0.22,0.06,0.06,0.06,0.03,0.13,0.0,0.0,2.35,18.6,6.96,2.16,1.58,1.37,0.2,20.64,0.0,0.05,1.0,0,0,0.0,0.04,25.0,0.3,0.14,0.22,0.06,0.06,0.05,0.03,0.38,0.0,0.0,2.09</t>
   </si>
   <si>
     <t>mandatory for each year. This</t>
@@ -1308,19 +1308,19 @@
     <t>g talking with friends, half-hearted volleyball/dodgeball, yearly physical fitness tests that don't require effort, DDR, bouncing on fitness balls, and, most recently at my arts high school, watching sports documentaries and playing Wii Sports. &lt;br/&gt; Unless public education is reformed, health classes can teach children what they need to know about fitness and nutrition, because PE classes are severely lacking.</t>
   </si>
   <si>
-    <t>132,1.0,19.76,0.0,0.05,1.0,0.0,0.05,0.0,0.15,0.15,0.15,0.33,0.0,274,1.0,17.9,0.0,0.04,1.0,0.0,0.0,0.0,0.2,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>112,0.0,11.91,0.0,0.0,2.0,0.0,0.05,0.0,0.1,0.2,0.2,0.0,0.0,303,0.0,13.03,1.0,0.02,1.25,0.0,0.02,0.0,0.2,0.15,0.1,0.08,0.0</t>
-  </si>
-  <si>
-    <t>101,0.0,15.32,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,248,0.25,13.18,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.2,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>298,0.67,13.7,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.2,0.2,0.0,0.0,219,0.33,12.23,0.0,0.03,5.67,0.0,0.03,0.0,0.05,0.2,0.2,0.17,0.25</t>
-  </si>
-  <si>
-    <t>274,1.0,17.9,0.0,0.04,1.0,0.0,0.0,0.0,0.2,0.25,0.3,0.0,0.0,647,0.2,20.64,0.0,0.05,1.0,0.0,0.04,0.0,0.35,0.55,0.5,0.08,0.0</t>
+    <t>20.0,6.6,0.46,0.32,1.47,1.0,19.76,0.0,0.05,1.0,0,0,0.0,0.05,0.0,0.25,0.05,0.15,0.0,0.0,0.0,0.05,0.0,0.0,0.0,3.4,22.5,6.09,1.04,0.63,1.65,1.0,17.9,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.33,0.11,0.13,0.13,0.13,0.02,0.0,0.0,0.0,0.0,3.28</t>
+  </si>
+  <si>
+    <t>22.0,5.09,0.51,0.32,1.62,0.0,11.91,0.0,0.0,2.0,0,0,0.0,0.05,0.0,0.14,0.14,0.23,0.14,0.14,0.09,0.05,0.13,0.0,0.0,3.0,13.75,5.51,1.28,1.26,1.01,0.0,13.03,1.0,0.02,1.25,2,0,0.0,0.02,0.0,0.24,0.11,0.13,0.07,0.07,0.04,0.04,0.0,0.0,0.0,2.9</t>
+  </si>
+  <si>
+    <t>17.0,5.94,0.39,0.32,1.25,0.0,15.32,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.06,0.24,0.0,0.0,0.06,0.0,0.0,0.0,0.0,6.17,11.25,5.51,1.04,1.26,0.83,0.25,13.18,0.0,0.0,1.0,3,0,0.0,0.07,0.0,0.24,0.09,0.18,0.09,0.09,0.04,0.0,0.0,0.0,0.0,2.0</t>
+  </si>
+  <si>
+    <t>18.33,5.42,1.28,0.95,1.35,0.67,13.7,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.22,0.18,0.11,0.09,0.09,0.05,0.02,0.0,0.0,0.0,2.94,13.0,5.62,0.91,0.95,0.96,0.33,12.23,0.0,0.03,5.67,0,0,0.0,0.03,0.0,0.28,0.13,0.15,0.08,0.08,0.03,0.03,0.13,0.25,0.25,2.0</t>
+  </si>
+  <si>
+    <t>22.5,6.09,1.04,0.63,1.65,1.0,17.9,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.33,0.11,0.13,0.13,0.13,0.02,0.0,0.0,0.0,0.0,3.28,18.6,6.96,2.16,1.58,1.37,0.2,20.64,0.0,0.05,1.0,0,0,0.0,0.04,25.0,0.3,0.14,0.22,0.06,0.06,0.05,0.03,0.38,0.0,0.0,2.09</t>
   </si>
   <si>
     <t>at my arts high school, watchi</t>
@@ -1353,37 +1353,37 @@
     <t>Wii Sports. &lt;br/&gt; Unless public education is reformed, health classes can teach children what they need to know about fitness and nutrition, because PE classes are severely lacking.</t>
   </si>
   <si>
-    <t>67,1.0,15.72,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,298,0.67,13.7,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>219,0.33,12.23,0.0,0.03,5.67,0.0,0.03,0.0,0.05,0.2,0.2,0.17,0.25,101,0.0,15.32,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>219,0.33,12.23,0.0,0.03,5.67,0.0,0.03,0.0,0.05,0.2,0.2,0.17,0.25,320,0.25,9.79,1.0,0.03,1.75,0.0,0.05,0.0,0.3,0.3,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>298,0.67,13.7,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.2,0.2,0.0,0.0,112,0.0,11.91,0.0,0.0,2.0,0.0,0.05,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>440,0.67,12.74,0.0,0.01,1.33,0.0,0.07,0.0,0.15,0.5,0.55,0.0,0.0,274,1.0,17.9,0.0,0.04,1.0,0.0,0.0,0.0,0.2,0.25,0.3,0.0,0.0</t>
+    <t>11.0,6.09,0.26,0.32,0.81,1.0,15.72,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.18,0.09,0.09,0.09,0.09,0.0,0.0,0.0,0.0,6.25,18.33,5.42,1.28,0.95,1.35,0.67,13.7,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.22,0.18,0.11,0.09,0.09,0.05,0.02,0.0,0.0,0.0,2.94</t>
+  </si>
+  <si>
+    <t>13.0,5.62,0.91,0.95,0.96,0.33,12.23,0.0,0.03,5.67,0,0,0.0,0.03,0.0,0.28,0.13,0.15,0.08,0.08,0.03,0.03,0.13,0.25,0.25,2.0,17.0,5.94,0.39,0.32,1.25,0.0,15.32,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.06,0.24,0.0,0.0,0.06,0.0,0.0,0.0,0.0,6.17</t>
+  </si>
+  <si>
+    <t>13.0,5.62,0.91,0.95,0.96,0.33,12.23,0.0,0.03,5.67,0,0,0.0,0.03,0.0,0.28,0.13,0.15,0.08,0.08,0.03,0.03,0.13,0.25,0.25,2.0,15.75,5.08,1.46,1.26,1.16,0.25,9.79,1.0,0.03,1.75,0,0,0.0,0.05,0.0,0.17,0.14,0.19,0.08,0.08,0.05,0.0,0.0,0.0,0.0,2.89</t>
+  </si>
+  <si>
+    <t>18.33,5.42,1.28,0.95,1.35,0.67,13.7,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.22,0.18,0.11,0.09,0.09,0.05,0.02,0.0,0.0,0.0,2.94,22.0,5.09,0.51,0.32,1.62,0.0,11.91,0.0,0.0,2.0,0,0,0.0,0.05,0.0,0.14,0.14,0.23,0.14,0.14,0.09,0.05,0.13,0.0,0.0,3.0</t>
+  </si>
+  <si>
+    <t>29.0,5.06,2.02,0.95,2.13,0.67,12.74,0.0,0.01,1.33,5,0,0.0,0.07,0.0,0.16,0.1,0.25,0.09,0.09,0.05,0.0,0.0,0.0,0.0,3.36,22.5,6.09,1.04,0.63,1.65,1.0,17.9,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.33,0.11,0.13,0.13,0.13,0.02,0.0,0.0,0.0,0.0,3.28</t>
   </si>
   <si>
     <t>nd also stress reduction.</t>
   </si>
   <si>
-    <t>303,0.0,13.03,1.0,0.02,1.25,0.0,0.02,0.0,0.2,0.15,0.1,0.08,0.0,440,0.67,12.74,0.0,0.01,1.33,0.0,0.07,0.0,0.15,0.5,0.55,0.0,0.0</t>
-  </si>
-  <si>
-    <t>132,1.0,19.76,0.0,0.05,1.0,0.0,0.05,0.0,0.15,0.15,0.15,0.33,0.0,219,0.33,12.23,0.0,0.03,5.67,0.0,0.03,0.0,0.05,0.2,0.2,0.17,0.25</t>
-  </si>
-  <si>
-    <t>190,0.2,11.0,0.0,0.0,1.2,0.0,0.03,0.0,0.05,0.1,0.1,0.0,0.0,84,0.5,13.99,0.0,0.07,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>101,0.0,15.32,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,320,0.25,9.79,1.0,0.03,1.75,0.0,0.05,0.0,0.3,0.3,0.35,0.0,0.0</t>
-  </si>
-  <si>
-    <t>374,0.17,13.06,0.0,0.04,1.0,0.0,0.04,0.0,0.25,0.4,0.3,0.0,0.0,440,0.67,12.74,0.0,0.01,1.33,0.0,0.07,0.0,0.15,0.5,0.55,0.0,0.0</t>
+    <t>13.75,5.51,1.28,1.26,1.01,0.0,13.03,1.0,0.02,1.25,2,0,0.0,0.02,0.0,0.24,0.11,0.13,0.07,0.07,0.04,0.04,0.0,0.0,0.0,2.9,29.0,5.06,2.02,0.95,2.13,0.67,12.74,0.0,0.01,1.33,5,0,0.0,0.07,0.0,0.16,0.1,0.25,0.09,0.09,0.05,0.0,0.0,0.0,0.0,3.36</t>
+  </si>
+  <si>
+    <t>20.0,6.6,0.46,0.32,1.47,1.0,19.76,0.0,0.05,1.0,0,0,0.0,0.05,0.0,0.25,0.05,0.15,0.0,0.0,0.0,0.05,0.0,0.0,0.0,3.4,13.0,5.62,0.91,0.95,0.96,0.33,12.23,0.0,0.03,5.67,0,0,0.0,0.03,0.0,0.28,0.13,0.15,0.08,0.08,0.03,0.03,0.13,0.25,0.25,2.0</t>
+  </si>
+  <si>
+    <t>7.0,5.43,0.81,1.58,0.51,0.2,11.0,0.0,0.0,1.2,2,0,0.0,0.03,0.0,0.14,0.06,0.23,0.11,0.11,0.0,0.06,0.25,0.0,0.0,2.67,7.0,6.0,0.32,0.63,0.51,0.5,13.99,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.36,0.21,0.21,0.0,0.0,0.07,0.0,0.0,0.0,0.0,2.57</t>
+  </si>
+  <si>
+    <t>17.0,5.94,0.39,0.32,1.25,0.0,15.32,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.06,0.24,0.0,0.0,0.06,0.0,0.0,0.0,0.0,6.17,15.75,5.08,1.46,1.26,1.16,0.25,9.79,1.0,0.03,1.75,0,0,0.0,0.05,0.0,0.17,0.14,0.19,0.08,0.08,0.05,0.0,0.0,0.0,0.0,2.89</t>
+  </si>
+  <si>
+    <t>11.33,5.5,1.58,1.89,0.83,0.17,13.06,0.0,0.04,1.0,1,0,0.0,0.04,0.0,0.22,0.15,0.19,0.1,0.1,0.03,0.01,0.0,0.0,0.0,2.36,29.0,5.06,2.02,0.95,2.13,0.67,12.74,0.0,0.01,1.33,5,0,0.0,0.07,0.0,0.16,0.1,0.25,0.09,0.09,0.05,0.0,0.0,0.0,0.0,3.36</t>
   </si>
   <si>
     <t>That is what physical education</t>
@@ -1419,25 +1419,25 @@
     <t>should not feel bad if they can't run a 5k or do 20 push ups</t>
   </si>
   <si>
-    <t>440,0.67,12.74,0.0,0.01,1.33,0.0,0.07,0.0,0.15,0.5,0.55,0.0,0.0,190,0.2,11.0,0.0,0.0,1.2,0.0,0.03,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>63,0.0,0.12,0.0,0.07,2.33,0.0,0.13,0.0,0.1,0.1,0.1,0.0,0.0,146,0.0,9.6,0.0,0.03,1.0,0.0,0.1,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>146,0.0,9.6,0.0,0.03,1.0,0.0,0.1,0.0,0.15,0.25,0.25,0.0,0.0,67,1.0,15.72,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>121,0.0,8.61,0.0,0.04,1.0,0.0,0.04,0.0,0.1,0.1,0.1,0.08,0.0,374,0.17,13.06,0.0,0.04,1.0,0.0,0.04,0.0,0.25,0.4,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>84,0.5,13.99,0.0,0.07,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,303,0.0,13.03,1.0,0.02,1.25,0.0,0.02,0.0,0.2,0.15,0.1,0.08,0.0</t>
-  </si>
-  <si>
-    <t>303,0.0,13.03,1.0,0.02,1.25,0.0,0.02,0.0,0.2,0.15,0.1,0.08,0.0,132,1.0,19.76,0.0,0.05,1.0,0.0,0.05,0.0,0.15,0.15,0.15,0.33,0.0</t>
-  </si>
-  <si>
-    <t>384,0.0,15.37,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.17,0.5,374,0.17,13.06,0.0,0.04,1.0,0.0,0.04,0.0,0.25,0.4,0.3,0.0,0.0</t>
+    <t>29.0,5.06,2.02,0.95,2.13,0.67,12.74,0.0,0.01,1.33,5,0,0.0,0.07,0.0,0.16,0.1,0.25,0.09,0.09,0.05,0.0,0.0,0.0,0.0,3.36,7.0,5.43,0.81,1.58,0.51,0.2,11.0,0.0,0.0,1.2,2,0,0.0,0.03,0.0,0.14,0.06,0.23,0.11,0.11,0.0,0.06,0.25,0.0,0.0,2.67</t>
+  </si>
+  <si>
+    <t>5.0,4.2,0.35,0.95,0.37,0.0,0.12,0.0,0.07,2.33,0,0,0.0,0.13,0.0,0.27,0.07,0.33,0.07,0.07,0.27,0.0,0.0,0.0,0.0,2.25,15.5,4.71,0.72,0.63,1.14,0.0,9.6,0.0,0.03,1.0,0,0,0.0,0.1,0.0,0.23,0.1,0.13,0.0,0.0,0.06,0.0,0.0,0.0,0.0,2.18</t>
+  </si>
+  <si>
+    <t>15.5,4.71,0.72,0.63,1.14,0.0,9.6,0.0,0.03,1.0,0,0,0.0,0.1,0.0,0.23,0.1,0.13,0.0,0.0,0.06,0.0,0.0,0.0,0.0,2.18,11.0,6.09,0.26,0.32,0.81,1.0,15.72,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.18,0.09,0.09,0.09,0.09,0.0,0.0,0.0,0.0,6.25</t>
+  </si>
+  <si>
+    <t>13.0,4.65,0.6,0.63,0.96,0.0,8.61,0.0,0.04,1.0,0,0,0.0,0.04,0.0,0.27,0.04,0.31,0.04,0.04,0.08,0.0,0.0,0.0,0.0,2.25,11.33,5.5,1.58,1.89,0.83,0.17,13.06,0.0,0.04,1.0,1,0,0.0,0.04,0.0,0.22,0.15,0.19,0.1,0.1,0.03,0.01,0.0,0.0,0.0,2.36</t>
+  </si>
+  <si>
+    <t>7.0,6.0,0.32,0.63,0.51,0.5,13.99,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.36,0.21,0.21,0.0,0.0,0.07,0.0,0.0,0.0,0.0,2.57,13.75,5.51,1.28,1.26,1.01,0.0,13.03,1.0,0.02,1.25,2,0,0.0,0.02,0.0,0.24,0.11,0.13,0.07,0.07,0.04,0.04,0.0,0.0,0.0,2.9</t>
+  </si>
+  <si>
+    <t>13.75,5.51,1.28,1.26,1.01,0.0,13.03,1.0,0.02,1.25,2,0,0.0,0.02,0.0,0.24,0.11,0.13,0.07,0.07,0.04,0.04,0.0,0.0,0.0,2.9,20.0,6.6,0.46,0.32,1.47,1.0,19.76,0.0,0.05,1.0,0,0,0.0,0.05,0.0,0.25,0.05,0.15,0.0,0.0,0.0,0.05,0.0,0.0,0.0,3.4</t>
+  </si>
+  <si>
+    <t>13.2,5.82,1.53,1.58,0.97,0.0,15.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.14,0.18,0.09,0.09,0.06,0.0,0.0,0.5,0.5,2.47,11.33,5.5,1.58,1.89,0.83,0.17,13.06,0.0,0.04,1.0,1,0,0.0,0.04,0.0,0.22,0.15,0.19,0.1,0.1,0.03,0.01,0.0,0.0,0.0,2.36</t>
   </si>
   <si>
     <t>kids are more likely to gain a</t>
@@ -1473,7 +1473,7 @@
     <t>hat Is All.</t>
   </si>
   <si>
-    <t>507,0.11,12.05,0.0,0.01,1.22,0.0,0.02,0.0,0.2,0.2,0.25,0.0,0.0,440,0.67,12.74,0.0,0.01,1.33,0.0,0.07,0.0,0.15,0.5,0.55,0.0,0.0</t>
+    <t>10.44,5.39,2.18,2.84,0.77,0.11,12.05,0.0,0.01,1.22,0,0,0.0,0.02,0.0,0.21,0.06,0.22,0.06,0.06,0.06,0.03,0.13,0.0,0.0,2.35,29.0,5.06,2.02,0.95,2.13,0.67,12.74,0.0,0.01,1.33,5,0,0.0,0.07,0.0,0.16,0.1,0.25,0.09,0.09,0.05,0.0,0.0,0.0,0.0,3.36</t>
   </si>
   <si>
     <t>ng them that eating right and e</t>
@@ -1509,10 +1509,10 @@
     <t>ese child being bully because they can't run as fast as someone else. That is what physical education could be real EDUCATION. Students should not feel bad if they can't run a 5k or do 20 push ups</t>
   </si>
   <si>
-    <t>274,1.0,17.9,0.0,0.04,1.0,0.0,0.0,0.0,0.2,0.25,0.3,0.0,0.0,146,0.0,9.6,0.0,0.03,1.0,0.0,0.1,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>317,0.2,13.69,0.0,0.05,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.08,0.25,507,0.11,12.05,0.0,0.01,1.22,0.0,0.02,0.0,0.2,0.2,0.25,0.0,0.0</t>
+    <t>22.5,6.09,1.04,0.63,1.65,1.0,17.9,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.33,0.11,0.13,0.13,0.13,0.02,0.0,0.0,0.0,0.0,3.28,15.5,4.71,0.72,0.63,1.14,0.0,9.6,0.0,0.03,1.0,0,0,0.0,0.1,0.0,0.23,0.1,0.13,0.0,0.0,0.06,0.0,0.0,0.0,0.0,2.18</t>
+  </si>
+  <si>
+    <t>11.4,5.56,1.32,1.58,0.84,0.2,13.69,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.23,0.09,0.21,0.05,0.05,0.11,0.02,0.0,0.25,0.25,2.5,10.44,5.39,2.18,2.84,0.77,0.11,12.05,0.0,0.01,1.22,0,0,0.0,0.02,0.0,0.21,0.06,0.22,0.06,0.06,0.06,0.03,0.13,0.0,0.0,2.35</t>
   </si>
   <si>
     <t>dy. i adds that if students do</t>
@@ -1536,34 +1536,34 @@
     <t>their own as me. i goes hiking and plays basketball in my neighborhood.</t>
   </si>
   <si>
-    <t>303,0.0,13.03,1.0,0.02,1.25,0.0,0.02,0.0,0.2,0.15,0.1,0.08,0.0,298,0.67,13.7,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.2,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>117,0.0,14.76,0.0,0.05,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,190,0.2,11.0,0.0,0.0,1.2,0.0,0.03,0.0,0.05,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>317,0.2,13.69,0.0,0.05,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.08,0.25,117,0.0,18.15,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>384,0.0,15.37,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.17,0.5,101,0.0,15.32,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>117,0.0,14.76,0.0,0.05,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,146,0.0,9.6,0.0,0.03,1.0,0.0,0.1,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>117,0.0,14.76,0.0,0.05,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,384,0.0,15.37,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.17,0.5</t>
-  </si>
-  <si>
-    <t>274,1.0,17.9,0.0,0.04,1.0,0.0,0.0,0.0,0.2,0.25,0.3,0.0,0.0,117,0.0,14.76,0.0,0.05,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>303,0.0,13.03,1.0,0.02,1.25,0.0,0.02,0.0,0.2,0.15,0.1,0.08,0.0,317,0.2,13.69,0.0,0.05,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.08,0.25</t>
-  </si>
-  <si>
-    <t>298,0.67,13.7,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.2,0.2,0.0,0.0,117,0.0,18.15,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>647,0.2,20.64,0.0,0.05,1.0,0.0,0.04,0.0,0.35,0.55,0.5,0.08,0.0,298,0.67,13.7,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.2,0.2,0.0,0.0</t>
+    <t>13.75,5.51,1.28,1.26,1.01,0.0,13.03,1.0,0.02,1.25,2,0,0.0,0.02,0.0,0.24,0.11,0.13,0.07,0.07,0.04,0.04,0.0,0.0,0.0,2.9,18.33,5.42,1.28,0.95,1.35,0.67,13.7,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.22,0.18,0.11,0.09,0.09,0.05,0.02,0.0,0.0,0.0,2.94</t>
+  </si>
+  <si>
+    <t>10.0,5.85,0.46,0.63,0.74,0.0,14.76,0.0,0.05,1.0,1,0,0.0,0.0,0.0,0.2,0.1,0.15,0.1,0.1,0.05,0.0,0.0,0.0,0.0,1.29,7.0,5.43,0.81,1.58,0.51,0.2,11.0,0.0,0.0,1.2,2,0,0.0,0.03,0.0,0.14,0.06,0.23,0.11,0.11,0.0,0.06,0.25,0.0,0.0,2.67</t>
+  </si>
+  <si>
+    <t>11.4,5.56,1.32,1.58,0.84,0.2,13.69,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.23,0.09,0.21,0.05,0.05,0.11,0.02,0.0,0.25,0.25,2.5,9.0,6.5,0.42,0.63,0.66,0.0,18.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.28,0.22,0.17,0.0,0.0,0.0,0.06,0.0,0.0,0.0,3.5</t>
+  </si>
+  <si>
+    <t>13.2,5.82,1.53,1.58,0.97,0.0,15.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.14,0.18,0.09,0.09,0.06,0.0,0.0,0.5,0.5,2.47,17.0,5.94,0.39,0.32,1.25,0.0,15.32,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.06,0.24,0.0,0.0,0.06,0.0,0.0,0.0,0.0,6.17</t>
+  </si>
+  <si>
+    <t>10.0,5.85,0.46,0.63,0.74,0.0,14.76,0.0,0.05,1.0,1,0,0.0,0.0,0.0,0.2,0.1,0.15,0.1,0.1,0.05,0.0,0.0,0.0,0.0,1.29,15.5,4.71,0.72,0.63,1.14,0.0,9.6,0.0,0.03,1.0,0,0,0.0,0.1,0.0,0.23,0.1,0.13,0.0,0.0,0.06,0.0,0.0,0.0,0.0,2.18</t>
+  </si>
+  <si>
+    <t>10.0,5.85,0.46,0.63,0.74,0.0,14.76,0.0,0.05,1.0,1,0,0.0,0.0,0.0,0.2,0.1,0.15,0.1,0.1,0.05,0.0,0.0,0.0,0.0,1.29,13.2,5.82,1.53,1.58,0.97,0.0,15.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.14,0.18,0.09,0.09,0.06,0.0,0.0,0.5,0.5,2.47</t>
+  </si>
+  <si>
+    <t>22.5,6.09,1.04,0.63,1.65,1.0,17.9,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.33,0.11,0.13,0.13,0.13,0.02,0.0,0.0,0.0,0.0,3.28,10.0,5.85,0.46,0.63,0.74,0.0,14.76,0.0,0.05,1.0,1,0,0.0,0.0,0.0,0.2,0.1,0.15,0.1,0.1,0.05,0.0,0.0,0.0,0.0,1.29</t>
+  </si>
+  <si>
+    <t>13.75,5.51,1.28,1.26,1.01,0.0,13.03,1.0,0.02,1.25,2,0,0.0,0.02,0.0,0.24,0.11,0.13,0.07,0.07,0.04,0.04,0.0,0.0,0.0,2.9,11.4,5.56,1.32,1.58,0.84,0.2,13.69,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.23,0.09,0.21,0.05,0.05,0.11,0.02,0.0,0.25,0.25,2.5</t>
+  </si>
+  <si>
+    <t>18.33,5.42,1.28,0.95,1.35,0.67,13.7,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.22,0.18,0.11,0.09,0.09,0.05,0.02,0.0,0.0,0.0,2.94,9.0,6.5,0.42,0.63,0.66,0.0,18.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.28,0.22,0.17,0.0,0.0,0.0,0.06,0.0,0.0,0.0,3.5</t>
+  </si>
+  <si>
+    <t>18.6,6.96,2.16,1.58,1.37,0.2,20.64,0.0,0.05,1.0,0,0,0.0,0.04,25.0,0.3,0.14,0.22,0.06,0.06,0.05,0.03,0.38,0.0,0.0,2.09,18.33,5.42,1.28,0.95,1.35,0.67,13.7,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.22,0.18,0.11,0.09,0.09,0.05,0.02,0.0,0.0,0.0,2.94</t>
   </si>
   <si>
     <t>but at least a requirements bu</t>
@@ -1596,43 +1596,43 @@
     <t>sider PE if the child is not so well? And if possible separate boys from girls, for boys assign some good games of physical education activity to them, same thing with girls, give them games for girls ideas.</t>
   </si>
   <si>
-    <t>219,0.33,12.23,0.0,0.03,5.67,0.0,0.03,0.0,0.05,0.2,0.2,0.17,0.25,374,0.17,13.06,0.0,0.04,1.0,0.0,0.04,0.0,0.25,0.4,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>112,0.0,11.91,0.0,0.0,2.0,0.0,0.05,0.0,0.1,0.2,0.2,0.0,0.0,63,0.0,0.12,0.0,0.07,2.33,0.0,0.13,0.0,0.1,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>67,1.0,15.72,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,219,0.33,12.23,0.0,0.03,5.67,0.0,0.03,0.0,0.05,0.2,0.2,0.17,0.25</t>
-  </si>
-  <si>
-    <t>317,0.2,13.69,0.0,0.05,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.08,0.25,440,0.67,12.74,0.0,0.01,1.33,0.0,0.07,0.0,0.15,0.5,0.55,0.0,0.0</t>
-  </si>
-  <si>
-    <t>101,0.0,15.32,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,317,0.2,13.69,0.0,0.05,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.08,0.25</t>
-  </si>
-  <si>
-    <t>117,0.0,18.15,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,219,0.33,12.23,0.0,0.03,5.67,0.0,0.03,0.0,0.05,0.2,0.2,0.17,0.25</t>
-  </si>
-  <si>
-    <t>274,1.0,17.9,0.0,0.04,1.0,0.0,0.0,0.0,0.2,0.25,0.3,0.0,0.0,67,1.0,15.72,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>440,0.67,12.74,0.0,0.01,1.33,0.0,0.07,0.0,0.15,0.5,0.55,0.0,0.0,84,0.5,13.99,0.0,0.07,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>317,0.2,13.69,0.0,0.05,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.08,0.25,132,1.0,19.76,0.0,0.05,1.0,0.0,0.05,0.0,0.15,0.15,0.15,0.33,0.0</t>
-  </si>
-  <si>
-    <t>112,0.0,11.91,0.0,0.0,2.0,0.0,0.05,0.0,0.1,0.2,0.2,0.0,0.0,146,0.0,9.6,0.0,0.03,1.0,0.0,0.1,0.0,0.15,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>84,0.5,13.99,0.0,0.07,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0,132,1.0,19.76,0.0,0.05,1.0,0.0,0.05,0.0,0.15,0.15,0.15,0.33,0.0</t>
-  </si>
-  <si>
-    <t>507,0.11,12.05,0.0,0.01,1.22,0.0,0.02,0.0,0.2,0.2,0.25,0.0,0.0,132,1.0,19.76,0.0,0.05,1.0,0.0,0.05,0.0,0.15,0.15,0.15,0.33,0.0</t>
-  </si>
-  <si>
-    <t>507,0.11,12.05,0.0,0.01,1.22,0.0,0.02,0.0,0.2,0.2,0.25,0.0,0.0,338,0.25,12.59,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0</t>
+    <t>13.0,5.62,0.91,0.95,0.96,0.33,12.23,0.0,0.03,5.67,0,0,0.0,0.03,0.0,0.28,0.13,0.15,0.08,0.08,0.03,0.03,0.13,0.25,0.25,2.0,11.33,5.5,1.58,1.89,0.83,0.17,13.06,0.0,0.04,1.0,1,0,0.0,0.04,0.0,0.22,0.15,0.19,0.1,0.1,0.03,0.01,0.0,0.0,0.0,2.36</t>
+  </si>
+  <si>
+    <t>22.0,5.09,0.51,0.32,1.62,0.0,11.91,0.0,0.0,2.0,0,0,0.0,0.05,0.0,0.14,0.14,0.23,0.14,0.14,0.09,0.05,0.13,0.0,0.0,3.0,5.0,4.2,0.35,0.95,0.37,0.0,0.12,0.0,0.07,2.33,0,0,0.0,0.13,0.0,0.27,0.07,0.33,0.07,0.07,0.27,0.0,0.0,0.0,0.0,2.25</t>
+  </si>
+  <si>
+    <t>11.0,6.09,0.26,0.32,0.81,1.0,15.72,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.18,0.09,0.09,0.09,0.09,0.0,0.0,0.0,0.0,6.25,13.0,5.62,0.91,0.95,0.96,0.33,12.23,0.0,0.03,5.67,0,0,0.0,0.03,0.0,0.28,0.13,0.15,0.08,0.08,0.03,0.03,0.13,0.25,0.25,2.0</t>
+  </si>
+  <si>
+    <t>11.4,5.56,1.32,1.58,0.84,0.2,13.69,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.23,0.09,0.21,0.05,0.05,0.11,0.02,0.0,0.25,0.25,2.5,29.0,5.06,2.02,0.95,2.13,0.67,12.74,0.0,0.01,1.33,5,0,0.0,0.07,0.0,0.16,0.1,0.25,0.09,0.09,0.05,0.0,0.0,0.0,0.0,3.36</t>
+  </si>
+  <si>
+    <t>17.0,5.94,0.39,0.32,1.25,0.0,15.32,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.06,0.24,0.0,0.0,0.06,0.0,0.0,0.0,0.0,6.17,11.4,5.56,1.32,1.58,0.84,0.2,13.69,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.23,0.09,0.21,0.05,0.05,0.11,0.02,0.0,0.25,0.25,2.5</t>
+  </si>
+  <si>
+    <t>9.0,6.5,0.42,0.63,0.66,0.0,18.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.28,0.22,0.17,0.0,0.0,0.0,0.06,0.0,0.0,0.0,3.5,13.0,5.62,0.91,0.95,0.96,0.33,12.23,0.0,0.03,5.67,0,0,0.0,0.03,0.0,0.28,0.13,0.15,0.08,0.08,0.03,0.03,0.13,0.25,0.25,2.0</t>
+  </si>
+  <si>
+    <t>22.5,6.09,1.04,0.63,1.65,1.0,17.9,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.33,0.11,0.13,0.13,0.13,0.02,0.0,0.0,0.0,0.0,3.28,11.0,6.09,0.26,0.32,0.81,1.0,15.72,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.18,0.18,0.09,0.09,0.09,0.09,0.0,0.0,0.0,0.0,6.25</t>
+  </si>
+  <si>
+    <t>29.0,5.06,2.02,0.95,2.13,0.67,12.74,0.0,0.01,1.33,5,0,0.0,0.07,0.0,0.16,0.1,0.25,0.09,0.09,0.05,0.0,0.0,0.0,0.0,3.36,7.0,6.0,0.32,0.63,0.51,0.5,13.99,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.36,0.21,0.21,0.0,0.0,0.07,0.0,0.0,0.0,0.0,2.57</t>
+  </si>
+  <si>
+    <t>11.4,5.56,1.32,1.58,0.84,0.2,13.69,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.23,0.09,0.21,0.05,0.05,0.11,0.02,0.0,0.25,0.25,2.5,20.0,6.6,0.46,0.32,1.47,1.0,19.76,0.0,0.05,1.0,0,0,0.0,0.05,0.0,0.25,0.05,0.15,0.0,0.0,0.0,0.05,0.0,0.0,0.0,3.4</t>
+  </si>
+  <si>
+    <t>22.0,5.09,0.51,0.32,1.62,0.0,11.91,0.0,0.0,2.0,0,0,0.0,0.05,0.0,0.14,0.14,0.23,0.14,0.14,0.09,0.05,0.13,0.0,0.0,3.0,15.5,4.71,0.72,0.63,1.14,0.0,9.6,0.0,0.03,1.0,0,0,0.0,0.1,0.0,0.23,0.1,0.13,0.0,0.0,0.06,0.0,0.0,0.0,0.0,2.18</t>
+  </si>
+  <si>
+    <t>7.0,6.0,0.32,0.63,0.51,0.5,13.99,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.36,0.21,0.21,0.0,0.0,0.07,0.0,0.0,0.0,0.0,2.57,20.0,6.6,0.46,0.32,1.47,1.0,19.76,0.0,0.05,1.0,0,0,0.0,0.05,0.0,0.25,0.05,0.15,0.0,0.0,0.0,0.05,0.0,0.0,0.0,3.4</t>
+  </si>
+  <si>
+    <t>10.44,5.39,2.18,2.84,0.77,0.11,12.05,0.0,0.01,1.22,0,0,0.0,0.02,0.0,0.21,0.06,0.22,0.06,0.06,0.06,0.03,0.13,0.0,0.0,2.35,20.0,6.6,0.46,0.32,1.47,1.0,19.76,0.0,0.05,1.0,0,0,0.0,0.05,0.0,0.25,0.05,0.15,0.0,0.0,0.0,0.05,0.0,0.0,0.0,3.4</t>
+  </si>
+  <si>
+    <t>10.44,5.39,2.18,2.84,0.77,0.11,12.05,0.0,0.01,1.22,0,0,0.0,0.02,0.0,0.21,0.06,0.22,0.06,0.06,0.06,0.03,0.13,0.0,0.0,2.35,16.25,5.2,1.51,1.26,1.19,0.25,12.59,0.0,0.0,1.0,0,0,0.0,0.0,12.5,0.23,0.06,0.2,0.06,0.06,0.05,0.0,0.0,0.0,0.0,2.33</t>
   </si>
   <si>
     <t>lso the fact people can join to</t>
@@ -1659,13 +1659,13 @@
     <t>should have that class time to use it towards their careers and not a class that is just there.</t>
   </si>
   <si>
-    <t>190,0.2,11.0,0.0,0.0,1.2,0.0,0.03,0.0,0.05,0.1,0.1,0.0,0.0,374,0.17,13.06,0.0,0.04,1.0,0.0,0.04,0.0,0.25,0.4,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>440,0.67,12.74,0.0,0.01,1.33,0.0,0.07,0.0,0.15,0.5,0.55,0.0,0.0,132,1.0,19.76,0.0,0.05,1.0,0.0,0.05,0.0,0.15,0.15,0.15,0.33,0.0</t>
-  </si>
-  <si>
-    <t>647,0.2,20.64,0.0,0.05,1.0,0.0,0.04,0.0,0.35,0.55,0.5,0.08,0.0,320,0.25,9.79,1.0,0.03,1.75,0.0,0.05,0.0,0.3,0.3,0.35,0.0,0.0</t>
+    <t>7.0,5.43,0.81,1.58,0.51,0.2,11.0,0.0,0.0,1.2,2,0,0.0,0.03,0.0,0.14,0.06,0.23,0.11,0.11,0.0,0.06,0.25,0.0,0.0,2.67,11.33,5.5,1.58,1.89,0.83,0.17,13.06,0.0,0.04,1.0,1,0,0.0,0.04,0.0,0.22,0.15,0.19,0.1,0.1,0.03,0.01,0.0,0.0,0.0,2.36</t>
+  </si>
+  <si>
+    <t>29.0,5.06,2.02,0.95,2.13,0.67,12.74,0.0,0.01,1.33,5,0,0.0,0.07,0.0,0.16,0.1,0.25,0.09,0.09,0.05,0.0,0.0,0.0,0.0,3.36,20.0,6.6,0.46,0.32,1.47,1.0,19.76,0.0,0.05,1.0,0,0,0.0,0.05,0.0,0.25,0.05,0.15,0.0,0.0,0.0,0.05,0.0,0.0,0.0,3.4</t>
+  </si>
+  <si>
+    <t>18.6,6.96,2.16,1.58,1.37,0.2,20.64,0.0,0.05,1.0,0,0,0.0,0.04,25.0,0.3,0.14,0.22,0.06,0.06,0.05,0.03,0.38,0.0,0.0,2.09,15.75,5.08,1.46,1.26,1.16,0.25,9.79,1.0,0.03,1.75,0,0,0.0,0.05,0.0,0.17,0.14,0.19,0.08,0.08,0.05,0.0,0.0,0.0,0.0,2.89</t>
   </si>
   <si>
     <t>st make kids unhappy,a lot of p</t>
@@ -1701,16 +1701,16 @@
     <t>en last,they can't play for example I suck at P.E. class I hate I'm always the last to be chosen for the teams and it's not cool and it's not just obese kids there are many obese adults who did P.E. and didn't helped in anything</t>
   </si>
   <si>
-    <t>440,0.67,12.74,0.0,0.01,1.33,0.0,0.07,0.0,0.15,0.5,0.55,0.0,0.0,117,0.0,18.15,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>132,1.0,19.76,0.0,0.05,1.0,0.0,0.05,0.0,0.15,0.15,0.15,0.33,0.0,121,0.0,8.61,0.0,0.04,1.0,0.0,0.04,0.0,0.1,0.1,0.1,0.08,0.0</t>
-  </si>
-  <si>
-    <t>63,0.0,0.12,0.0,0.07,2.33,0.0,0.13,0.0,0.1,0.1,0.1,0.0,0.0,317,0.2,13.69,0.0,0.05,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.08,0.25</t>
-  </si>
-  <si>
-    <t>338,0.25,12.59,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.25,0.25,0.0,0.0,647,0.2,20.64,0.0,0.05,1.0,0.0,0.04,0.0,0.35,0.55,0.5,0.08,0.0</t>
+    <t>29.0,5.06,2.02,0.95,2.13,0.67,12.74,0.0,0.01,1.33,5,0,0.0,0.07,0.0,0.16,0.1,0.25,0.09,0.09,0.05,0.0,0.0,0.0,0.0,3.36,9.0,6.5,0.42,0.63,0.66,0.0,18.15,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.28,0.22,0.17,0.0,0.0,0.0,0.06,0.0,0.0,0.0,3.5</t>
+  </si>
+  <si>
+    <t>20.0,6.6,0.46,0.32,1.47,1.0,19.76,0.0,0.05,1.0,0,0,0.0,0.05,0.0,0.25,0.05,0.15,0.0,0.0,0.0,0.05,0.0,0.0,0.0,3.4,13.0,4.65,0.6,0.63,0.96,0.0,8.61,0.0,0.04,1.0,0,0,0.0,0.04,0.0,0.27,0.04,0.31,0.04,0.04,0.08,0.0,0.0,0.0,0.0,2.25</t>
+  </si>
+  <si>
+    <t>5.0,4.2,0.35,0.95,0.37,0.0,0.12,0.0,0.07,2.33,0,0,0.0,0.13,0.0,0.27,0.07,0.33,0.07,0.07,0.27,0.0,0.0,0.0,0.0,2.25,11.4,5.56,1.32,1.58,0.84,0.2,13.69,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.23,0.09,0.21,0.05,0.05,0.11,0.02,0.0,0.25,0.25,2.5</t>
+  </si>
+  <si>
+    <t>16.25,5.2,1.51,1.26,1.19,0.25,12.59,0.0,0.0,1.0,0,0,0.0,0.0,12.5,0.23,0.06,0.2,0.06,0.06,0.05,0.0,0.0,0.0,0.0,2.33,18.6,6.96,2.16,1.58,1.37,0.2,20.64,0.0,0.05,1.0,0,0,0.0,0.04,25.0,0.3,0.14,0.22,0.06,0.06,0.05,0.03,0.38,0.0,0.0,2.09</t>
   </si>
   <si>
     <t>quire effort, DDR, bouncing on</t>
@@ -1746,22 +1746,22 @@
     <t>t my arts high school, watching sports documentaries and playing Wii Sports. &lt;br/&gt; Unless public education is reformed, health classes can teach children what they need to know about fitness and nutrition, because PE classes are severely lacking.</t>
   </si>
   <si>
-    <t>248,0.25,13.18,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.2,0.25,0.0,0.0,374,0.17,13.06,0.0,0.04,1.0,0.0,0.04,0.0,0.25,0.4,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>303,0.0,13.03,1.0,0.02,1.25,0.0,0.02,0.0,0.2,0.15,0.1,0.08,0.0,117,0.0,14.76,0.0,0.05,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>384,0.0,15.37,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.17,0.5,84,0.5,13.99,0.0,0.07,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>317,0.2,13.69,0.0,0.05,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.08,0.25,274,1.0,17.9,0.0,0.04,1.0,0.0,0.0,0.0,0.2,0.25,0.3,0.0,0.0</t>
-  </si>
-  <si>
-    <t>317,0.2,13.69,0.0,0.05,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.08,0.25,384,0.0,15.37,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.15,0.15,0.17,0.5</t>
-  </si>
-  <si>
-    <t>440,0.67,12.74,0.0,0.01,1.33,0.0,0.07,0.0,0.15,0.5,0.55,0.0,0.0,248,0.25,13.18,0.0,0.0,1.0,0.0,0.07,0.0,0.1,0.2,0.25,0.0,0.0</t>
+    <t>11.25,5.51,1.04,1.26,0.83,0.25,13.18,0.0,0.0,1.0,3,0,0.0,0.07,0.0,0.24,0.09,0.18,0.09,0.09,0.04,0.0,0.0,0.0,0.0,2.0,11.33,5.5,1.58,1.89,0.83,0.17,13.06,0.0,0.04,1.0,1,0,0.0,0.04,0.0,0.22,0.15,0.19,0.1,0.1,0.03,0.01,0.0,0.0,0.0,2.36</t>
+  </si>
+  <si>
+    <t>13.75,5.51,1.28,1.26,1.01,0.0,13.03,1.0,0.02,1.25,2,0,0.0,0.02,0.0,0.24,0.11,0.13,0.07,0.07,0.04,0.04,0.0,0.0,0.0,2.9,10.0,5.85,0.46,0.63,0.74,0.0,14.76,0.0,0.05,1.0,1,0,0.0,0.0,0.0,0.2,0.1,0.15,0.1,0.1,0.05,0.0,0.0,0.0,0.0,1.29</t>
+  </si>
+  <si>
+    <t>13.2,5.82,1.53,1.58,0.97,0.0,15.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.14,0.18,0.09,0.09,0.06,0.0,0.0,0.5,0.5,2.47,7.0,6.0,0.32,0.63,0.51,0.5,13.99,0.0,0.07,1.0,0,0,0.0,0.0,0.0,0.36,0.21,0.21,0.0,0.0,0.07,0.0,0.0,0.0,0.0,2.57</t>
+  </si>
+  <si>
+    <t>11.4,5.56,1.32,1.58,0.84,0.2,13.69,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.23,0.09,0.21,0.05,0.05,0.11,0.02,0.0,0.25,0.25,2.5,22.5,6.09,1.04,0.63,1.65,1.0,17.9,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.33,0.11,0.13,0.13,0.13,0.02,0.0,0.0,0.0,0.0,3.28</t>
+  </si>
+  <si>
+    <t>11.4,5.56,1.32,1.58,0.84,0.2,13.69,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.23,0.09,0.21,0.05,0.05,0.11,0.02,0.0,0.25,0.25,2.5,13.2,5.82,1.53,1.58,0.97,0.0,15.37,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.14,0.18,0.09,0.09,0.06,0.0,0.0,0.5,0.5,2.47</t>
+  </si>
+  <si>
+    <t>29.0,5.06,2.02,0.95,2.13,0.67,12.74,0.0,0.01,1.33,5,0,0.0,0.07,0.0,0.16,0.1,0.25,0.09,0.09,0.05,0.0,0.0,0.0,0.0,3.36,11.25,5.51,1.04,1.26,0.83,0.25,13.18,0.0,0.0,1.0,3,0,0.0,0.07,0.0,0.24,0.09,0.18,0.09,0.09,0.04,0.0,0.0,0.0,0.0,2.0</t>
   </si>
 </sst>
 </file>
